--- a/Documentation/ALMA-Purchase-Form.xlsx
+++ b/Documentation/ALMA-Purchase-Form.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,13 +15,9 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles" vbProcedure="false">'Purchase Request '!$10:$10</definedName>
-    <definedName function="false" hidden="false" name="Advances" vbProcedure="false">'purchase request ' #REF!</definedName>
     <definedName function="false" hidden="false" name="ColumnTitle1" vbProcedure="false">'Purchase Request '!$B$10</definedName>
-    <definedName function="false" hidden="false" name="Subtotal" vbProcedure="false">'purchase request ' #REF!</definedName>
     <definedName function="false" hidden="false" name="valHighlight" vbProcedure="false">IFERROR(IF(#REF!="Yes", TRUE(), FALSE()),FALSE())</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="Advances" vbProcedure="false">'purchase request ' #REF!</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="ColumnTitle1" vbProcedure="false">'Purchase Request '!$B$10</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="Subtotal" vbProcedure="false">'purchase request ' #REF!</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="valHighlight" vbProcedure="false">IFERROR(IF(#REF!="Yes", TRUE(), FALSE()),FALSE())</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -34,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="85">
   <si>
     <t xml:space="preserve">Please click here to review the OUR Purchasing Guidelines prior to completing this form.</t>
   </si>
@@ -47,6 +43,7 @@
         <color rgb="FF339933"/>
         <rFont val="Constantia"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Purchase Request Form:
 </t>
@@ -56,6 +53,7 @@
         <sz val="11"/>
         <rFont val="Constantia"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">
 • Used to request the purchase of all supplies/materials as needed.
@@ -71,6 +69,7 @@
         <color rgb="FF0070C0"/>
         <rFont val="Constantia"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">electronic</t>
     </r>
@@ -79,6 +78,7 @@
         <sz val="11"/>
         <rFont val="Constantia"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> and </t>
     </r>
@@ -89,6 +89,7 @@
         <color rgb="FFEFA011"/>
         <rFont val="Constantia"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">hazardous</t>
     </r>
@@ -97,6 +98,7 @@
         <sz val="11"/>
         <rFont val="Constantia"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> items in tabs below (required).
 • Provide direct links to exact item requested.
@@ -115,6 +117,7 @@
         <color rgb="FF0070C0"/>
         <rFont val="Constantia"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Electronic, computer &amp; software purchases:
 </t>
@@ -124,6 +127,7 @@
         <sz val="11"/>
         <rFont val="Constantia"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -134,6 +138,7 @@
         <sz val="11"/>
         <rFont val="Constantia"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">• </t>
     </r>
@@ -142,6 +147,7 @@
         <sz val="11"/>
         <rFont val="Constantia"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">IT APPROVAL REQUIRED. 
 • Provide a brief description of what the item(s) will be used for on the</t>
@@ -152,6 +158,7 @@
         <sz val="11"/>
         <rFont val="Constantia"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -162,6 +169,7 @@
         <color rgb="FF0070C0"/>
         <rFont val="Constantia"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">"Electronic Items"</t>
     </r>
@@ -171,6 +179,7 @@
         <sz val="11"/>
         <rFont val="Constantia"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -179,6 +188,7 @@
         <sz val="11"/>
         <rFont val="Constantia"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">tab below.
 • OUR will obtain IT approval on your behalf.
@@ -195,6 +205,7 @@
         <color rgb="FFEFA011"/>
         <rFont val="Constantia"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Hazardous, chemical &amp; gas purchases:
 </t>
@@ -204,6 +215,7 @@
         <sz val="11"/>
         <rFont val="Constantia"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">
 • EH&amp;S Review and Acceptance REQUIRED before purchasing.
@@ -217,6 +229,7 @@
         <color rgb="FFEFA011"/>
         <rFont val="Constantia"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">"Hazardous &amp; Chemicals"</t>
     </r>
@@ -227,6 +240,7 @@
         <color rgb="FFFFC000"/>
         <rFont val="Constantia"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -235,6 +249,7 @@
         <sz val="11"/>
         <rFont val="Constantia"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Tab below.
 • Once review is completed by EH&amp;S, submit the acceptance with your Purchase Request Form to the OUR Business Manager and complete </t>
@@ -246,6 +261,7 @@
         <color rgb="FFEFA011"/>
         <rFont val="Constantia"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">"Hazardous &amp; Chemicals"</t>
     </r>
@@ -255,6 +271,7 @@
         <sz val="11"/>
         <rFont val="Constantia"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -263,6 +280,7 @@
         <sz val="11"/>
         <rFont val="Constantia"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Tab</t>
     </r>
@@ -273,6 +291,7 @@
         <color rgb="FFFFC000"/>
         <rFont val="Constantia"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -281,6 +300,7 @@
         <sz val="11"/>
         <rFont val="Constantia"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">below. 
 </t>
@@ -294,6 +314,7 @@
         <sz val="12"/>
         <rFont val="Constantia"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Single Purchases $3,000 or more:
 </t>
@@ -303,6 +324,7 @@
         <sz val="11"/>
         <rFont val="Constantia"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">
 • Due to the high expense, a Purchase Requisition must be submitted to purchase the item. 
@@ -315,10 +337,19 @@
     <t xml:space="preserve">Student Name:</t>
   </si>
   <si>
+    <t xml:space="preserve">Jacob R. Romeo</t>
+  </si>
+  <si>
     <t xml:space="preserve">Project Title:</t>
   </si>
   <si>
+    <t xml:space="preserve">Advanced LASER Mining Array</t>
+  </si>
+  <si>
     <t xml:space="preserve">Type of Funding                                                                                            (Spark, Ignite, Student Internal, SURF):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spark</t>
   </si>
   <si>
     <r>
@@ -329,6 +360,7 @@
         <color rgb="FF1F497D"/>
         <rFont val="Constantia"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">SHIP TO:</t>
     </r>
@@ -339,13 +371,20 @@
         <color rgb="FF1F497D"/>
         <rFont val="Constantia"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> (Faculty / Lab Director Name)</t>
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Engineering Physics Propulsion lab</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lab / Building Name
  and Building # : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COAS</t>
   </si>
   <si>
     <t xml:space="preserve">Room # : </t>
@@ -361,6 +400,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Franklin Gothic Book"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">***</t>
     </r>
@@ -371,6 +411,7 @@
         <color rgb="FF000000"/>
         <rFont val="Franklin Gothic Book"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Additional info MUST be provided on tabs below for ALL electronic, computer and hazardous/chemical items.</t>
     </r>
@@ -381,6 +422,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Franklin Gothic Book"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">***</t>
     </r>
@@ -429,6 +471,7 @@
         <color rgb="FFFFFFFF"/>
         <rFont val="Constantia"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Actual Total - Inc. Shipping Fee
 </t>
@@ -439,12 +482,151 @@
         <color rgb="FFFFFFFF"/>
         <rFont val="Constantia"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(Purchaser will complete this)</t>
     </r>
   </si>
   <si>
     <t xml:space="preserve">Notes from Purchaser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thorlabs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Round Wedge Prism 2*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PS810-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.thorlabs.com/thorproduct.cfm?partnumber=PS810-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Round Wedge Prism 4*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PS811-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.thorlabs.com/thorproduct.cfm?partnumber=PS811-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Round Wedge Prism 6*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PS812-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.thorlabs.com/thorproduct.cfm?partnumber=PS812-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flash Hobby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLDC motors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B07545RQ62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/DYS-2200KV-Brushless-Multirotor-Quadcopter/dp/B07545RQ62/ref=pd_bxgy_vft_high_sccl_2/130-1779425-7092708?pd_rd_w=X85GB&amp;content-id=amzn1.sym.7f0cf323-50c6-49e3-b3f9-63546bb79c92&amp;pf_rd_p=7f0cf323-50c6-49e3-b3f9-63546bb79c92&amp;pf_rd_r=3MXAN6A5W3EKA2VP9PW3&amp;pd_rd_wg=QMvO6&amp;pd_rd_r=29e207af-2332-411d-aea8-85927de654cb&amp;pd_rd_i=B07545RQ62&amp;th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supulse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electric Speed Controller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B071GRSFBD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/RC-Brushless-Electric-Controller-bullet/dp/B071GRSFBD/ref=pd_bxgy_vft_none_sccl_1/136-0048247-6319975?pd_rd_w=MvFrL&amp;content-id=amzn1.sym.7f0cf323-50c6-49e3-b3f9-63546bb79c92&amp;pf_rd_p=7f0cf323-50c6-49e3-b3f9-63546bb79c92&amp;pf_rd_r=PWNWS34TEATN2B6QJ1P0&amp;pd_rd_wg=SStfs&amp;pd_rd_r=692670f8-ee9f-4adf-9418-9555bad4a69d&amp;pd_rd_i=B071GRSFBD&amp;th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3D filament</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zeee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 3s LiPo Batt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B07Y67MPKW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/Zeee-Graphene-Quadcopter-Helicopter-Airplane/dp/B07Y67MPKW/ref=sxin_17_pa_sp_search_thematic_sspa?content-id=amzn1.sym.efed5387-c72b-4c7e-9f69-37e7b3a247c4%3Aamzn1.sym.efed5387-c72b-4c7e-9f69-37e7b3a247c4&amp;crid=3GNRWU4MN8VA2&amp;cv_ct_cx=3s+lipo+battery+xt60&amp;keywords=3s+lipo+battery+xt60&amp;pd_rd_i=B07Y67MPKW&amp;pd_rd_r=755d92e4-473e-4c24-83ff-ca2b5b7128d2&amp;pd_rd_w=yW6hh&amp;pd_rd_wg=pzGYl&amp;pf_rd_p=efed5387-c72b-4c7e-9f69-37e7b3a247c4&amp;pf_rd_r=YN32WQ08QZ2TRM4R8WM4&amp;qid=1676684598&amp;sprefix=3s+lipo+battery+xt60%2Caps%2C106&amp;sr=1-5-d2e33f99-33d7-4007-8eb6-144611cb9116-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzRlhSWDg4SkgyVUlWJmVuY3J5cHRlZElkPUEwMjg3NjM2MVdHMFkzMkE5T1JZQyZlbmNyeXB0ZWRBZElkPUEwMjY0MTk0MlhUMko2S09YUVJMNCZ3aWRnZXROYW1lPXNwX3NlYXJjaF90aGVtYXRpYyZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4pcs LiPo Battery Case</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FBB125x4-02 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/Battery-Fireproof-Explosion-Proof-Storage/dp/B078Y723Z3/ref=asc_df_B078Y723Z3/?tag=hyprod-20&amp;linkCode=df0&amp;hvadid=459723993320&amp;hvpos=&amp;hvnetw=g&amp;hvrand=14908349573147210203&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9011497&amp;hvtargid=pla-965790198382&amp;psc=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Civil Laser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">680nm 10mW Red laser module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product 64/83:No Part number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAVE to specify DOT shape, not line or crosshair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.civillaser.com/index.php?main_page=product_info&amp;products_id=1276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AtomStack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LASER Protective Eye glasses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AtomOD5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.atomstack.net/products/atomstack-od5-laser-protective-glasses?currency=USD&amp;variant=41033735405749&amp;utm_medium=cpc&amp;utm_source=google&amp;utm_campaign=Google%20Shopping&amp;gclid=Cj0KCQiA6LyfBhC3ARIsAG4gkF9zHam45QhZ9hOpmTvXbGnOjy7zufnKVgHVr2GHpWKX9YiawuHzo8UaAnlsEALw_wcB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Welding Screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H-5179S8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAKE sure to get the ‘Shade-8’ color under the color specifications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.uline.com/Product/Detail/H-5179S8/Welding/Welding-Screen-6-x-8-Shade-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grainger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Safety sign</t>
+  </si>
+  <si>
+    <t xml:space="preserve">451R27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.grainger.com/product/451R27?gucid=N:N:PS:Paid:GGL:CSM-2295:4P7A1P:20501231&amp;gclid=Cj0KCQiA6LyfBhC3ARIsAG4gkF8mrG7LQRc5XMbhc7sgmJkHLK7Wq7zfbQvBMNuZW0-TjL3wW8M21LQaAkbcEALw_wcB&amp;gclsrc=aw.ds</t>
   </si>
   <si>
     <r>
@@ -454,6 +636,7 @@
         <color rgb="FF404040"/>
         <rFont val="Franklin Gothic Book"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">All </t>
     </r>
@@ -465,6 +648,7 @@
         <color rgb="FF404040"/>
         <rFont val="Franklin Gothic Book"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">electronic, computer, and technology</t>
     </r>
@@ -475,6 +659,7 @@
         <color rgb="FF404040"/>
         <rFont val="Franklin Gothic Book"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> items must be approved by IT prior to purchasing. 
 The info below is required so that we can obtain IT approval on your behalf.
@@ -489,6 +674,7 @@
         <color rgb="FFFFFFFF"/>
         <rFont val="Constantia"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Line # 
 </t>
@@ -500,6 +686,7 @@
         <color rgb="FFFFFFFF"/>
         <rFont val="Constantia"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">from Purchase Request Form</t>
     </r>
@@ -512,6 +699,7 @@
         <color rgb="FFFFFFFF"/>
         <rFont val="Constantia"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -523,6 +711,7 @@
         <color rgb="FFFFFFFF"/>
         <rFont val="Constantia"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Justification 
 </t>
@@ -534,6 +723,7 @@
         <color rgb="FFFFFFFF"/>
         <rFont val="Constantia"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(why is the item needed, where will it be used / stored, will it be connected to the University network, etc.)</t>
     </r>
@@ -546,6 +736,7 @@
         <color rgb="FF404040"/>
         <rFont val="Franklin Gothic Book"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ALL </t>
     </r>
@@ -557,6 +748,7 @@
         <color rgb="FF404040"/>
         <rFont val="Franklin Gothic Book"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">hazardous and chemical</t>
     </r>
@@ -567,6 +759,7 @@
         <color rgb="FF404040"/>
         <rFont val="Franklin Gothic Book"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> items require review and acceptance by Environmental Health &amp; Safety. 
 You and your Faculty Mentor are required to obtain EH&amp;S review and acceptance of a </t>
@@ -579,6 +772,7 @@
         <color rgb="FF404040"/>
         <rFont val="Franklin Gothic Book"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">comprehensive</t>
     </r>
@@ -589,6 +783,7 @@
         <color rgb="FF404040"/>
         <rFont val="Franklin Gothic Book"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> SOP 
 prior to requesting hazardous items.</t>
@@ -602,6 +797,7 @@
         <color rgb="FFFFFFFF"/>
         <rFont val="Constantia"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Link to Safety Data Sheet
 </t>
@@ -612,6 +808,7 @@
         <color rgb="FFFFFFFF"/>
         <rFont val="Constantia"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -628,6 +825,7 @@
         <color rgb="FFFFFFFF"/>
         <rFont val="Constantia"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">SOP Reviewed and Accepted by EH&amp;S?
 </t>
@@ -639,6 +837,7 @@
         <color rgb="FFFFFFFF"/>
         <rFont val="Constantia"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Select Yes or No</t>
     </r>
@@ -661,6 +860,7 @@
       <color rgb="FF404040"/>
       <name val="Franklin Gothic Book"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -683,6 +883,7 @@
       <color rgb="FF000000"/>
       <name val="Franklin Gothic Book"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -691,6 +892,7 @@
       <color rgb="FF0096D2"/>
       <name val="Franklin Gothic Book"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -698,6 +900,7 @@
       <color rgb="FF0096D2"/>
       <name val="Franklin Gothic Book"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -706,11 +909,13 @@
       <color rgb="FF339933"/>
       <name val="Constantia"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Constantia"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -718,6 +923,7 @@
       <color rgb="FF0070C0"/>
       <name val="Constantia"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -725,6 +931,7 @@
       <color rgb="FFEFA011"/>
       <name val="Constantia"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -733,12 +940,14 @@
       <color rgb="FF0070C0"/>
       <name val="Constantia"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="11"/>
       <name val="Constantia"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -747,6 +956,7 @@
       <color rgb="FFEFA011"/>
       <name val="Constantia"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -754,6 +964,7 @@
       <color rgb="FFFFC000"/>
       <name val="Constantia"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -761,12 +972,14 @@
       <sz val="12"/>
       <name val="Constantia"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="24"/>
       <color rgb="FFB5A63A"/>
       <name val="Constantia"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -775,12 +988,14 @@
       <color rgb="FF0D0D0D"/>
       <name val="Constantia"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF1F497D"/>
       <name val="Constantia"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -788,6 +1003,7 @@
       <color rgb="FF1F497D"/>
       <name val="Constantia"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -795,11 +1011,13 @@
       <color rgb="FFB5A63A"/>
       <name val="Constantia"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Constantia"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -807,12 +1025,14 @@
       <color rgb="FF1F497D"/>
       <name val="Constantia"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF404040"/>
       <name val="Constantia"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -821,6 +1041,7 @@
       <color rgb="FF1F497D"/>
       <name val="Constantia"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -828,23 +1049,27 @@
       <color rgb="FF1F497D"/>
       <name val="Constantia"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF404040"/>
       <name val="Constantia"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Constantia"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="16"/>
       <name val="Franklin Gothic Book"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -852,6 +1077,7 @@
       <color rgb="FFFF0000"/>
       <name val="Franklin Gothic Book"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -859,6 +1085,7 @@
       <color rgb="FF000000"/>
       <name val="Franklin Gothic Book"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -866,6 +1093,7 @@
       <color rgb="FFFFFFFF"/>
       <name val="Franklin Gothic Book"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -873,6 +1101,7 @@
       <color rgb="FF404040"/>
       <name val="Franklin Gothic Book"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -880,6 +1109,7 @@
       <color rgb="FFFFFFFF"/>
       <name val="Constantia"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -887,18 +1117,21 @@
       <color rgb="FF404040"/>
       <name val="Constantia"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Constantia"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFFFFFFF"/>
       <name val="Constantia"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -906,6 +1139,7 @@
       <color rgb="FFFFFFFF"/>
       <name val="Constantia"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -913,17 +1147,20 @@
       <color rgb="FF404040"/>
       <name val="Franklin Gothic Book"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF404040"/>
       <name val="Franklin Gothic Book"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Tahoma"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="40"/>
@@ -937,6 +1174,7 @@
       <color rgb="FF404040"/>
       <name val="Franklin Gothic Book"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -945,6 +1183,7 @@
       <color rgb="FF404040"/>
       <name val="Franklin Gothic Book"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -952,6 +1191,7 @@
       <color rgb="FFFFFFFF"/>
       <name val="Constantia"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -959,6 +1199,7 @@
       <color rgb="FFFFFFFF"/>
       <name val="Constantia"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -966,6 +1207,7 @@
       <color rgb="FFFFFFFF"/>
       <name val="Constantia"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -974,6 +1216,7 @@
       <color rgb="FFFFFFFF"/>
       <name val="Constantia"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1304,7 +1547,7 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="62">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1313,11 +1556,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1329,23 +1572,15 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="27" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="28" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1373,14 +1608,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="24" fillId="3" borderId="0" xfId="29" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1393,11 +1620,11 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="30" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="23" fillId="3" borderId="6" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="30" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1405,10 +1632,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1437,19 +1660,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="35" fillId="6" borderId="11" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="35" fillId="6" borderId="11" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="37" fillId="6" borderId="12" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="37" fillId="6" borderId="12" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1457,87 +1680,55 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="26" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="26" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="26" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="26" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="26" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="26" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="17" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="17" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="17" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="17" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="39" fillId="0" borderId="15" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="17" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="39" fillId="0" borderId="15" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="26" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="26" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="26" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="26" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="26" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="26" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="17" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="17" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1549,12 +1740,8 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="42" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1569,19 +1756,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="22" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="26" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="26" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="20" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="20" xfId="22" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="21" xfId="26" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="21" xfId="26" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1601,11 +1788,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="26" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="26" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="21" xfId="26" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="21" xfId="26" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1629,7 +1816,7 @@
     <cellStyle name="Excel Built-in Heading 2" xfId="29"/>
     <cellStyle name="Excel Built-in Heading 3" xfId="30"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1641,6 +1828,13 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF404040"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0096D2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1733,9 +1927,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>12240</xdr:colOff>
+      <xdr:colOff>11880</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1237680</xdr:rowOff>
+      <xdr:rowOff>1237320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1749,7 +1943,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10440" y="0"/>
-          <a:ext cx="21135240" cy="1237680"/>
+          <a:ext cx="21080880" cy="1237320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1770,9 +1964,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1294920</xdr:colOff>
+      <xdr:colOff>1294560</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1206360</xdr:rowOff>
+      <xdr:rowOff>1206000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1781,8 +1975,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3201480" y="42480"/>
-          <a:ext cx="15588360" cy="1163880"/>
+          <a:off x="3198240" y="42480"/>
+          <a:ext cx="15541200" cy="1163520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1834,9 +2028,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>793440</xdr:colOff>
+      <xdr:colOff>793080</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1238040</xdr:rowOff>
+      <xdr:rowOff>1237680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1849,8 +2043,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="747720" y="0"/>
-          <a:ext cx="2548800" cy="1238040"/>
+          <a:off x="745200" y="0"/>
+          <a:ext cx="2547720" cy="1237680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1890,15 +2084,15 @@
   </sheetPr>
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.53125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="120.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="120.06"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1950,2405 +2144,2537 @@
   </sheetPr>
   <dimension ref="A1:L112"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
+      <selection pane="bottomLeft" activeCell="H23" activeCellId="0" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="30" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.53125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="6.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="31.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="17.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="23.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="31.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="17.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="23.82"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="99.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1" s="7"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="9"/>
-    </row>
-    <row r="2" s="18" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11" t="s">
+      <c r="B1" s="6"/>
+      <c r="K1" s="7"/>
+    </row>
+    <row r="2" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="15" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="17"/>
-    </row>
-    <row r="3" s="18" customFormat="true" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10"/>
-      <c r="B3" s="19" t="s">
+      <c r="F2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="11" t="s">
+      <c r="G2" s="11"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="11" t="s">
+      <c r="J2" s="13"/>
+      <c r="K2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="16"/>
-      <c r="L3" s="17"/>
-    </row>
-    <row r="4" s="18" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="22"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="24"/>
+      <c r="L2" s="8"/>
+    </row>
+    <row r="3" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8"/>
+      <c r="B3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="18" t="n">
+        <v>123.1</v>
+      </c>
+      <c r="L3" s="8"/>
+    </row>
+    <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="19"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="K4" s="20"/>
     </row>
     <row r="5" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
+      <c r="B5" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
     </row>
     <row r="6" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
+      <c r="B6" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
     </row>
     <row r="7" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="8" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H8" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="29"/>
-      <c r="J8" s="30" t="n">
+      <c r="H8" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="24"/>
+      <c r="J8" s="25" t="n">
         <f aca="false">SUM('Purchase Request '!$J$11:$J$110)</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="L8" s="30" t="n">
+        <v>998.28</v>
+      </c>
+      <c r="K8" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="25" t="n">
         <f aca="false">SUM('Purchase Request '!$K$11:$K$110)</f>
-        <v>0</v>
+        <v>998.28</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="36"/>
+      <c r="F11" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" s="39" t="n">
+        <v>54.16</v>
+      </c>
+      <c r="I11" s="39"/>
+      <c r="J11" s="40" t="n">
+        <f aca="false">'Purchase Request '!$H11*'Purchase Request '!$G11+'Purchase Request '!$I11</f>
+        <v>108.32</v>
+      </c>
+      <c r="K11" s="41" t="n">
+        <f aca="false">'Purchase Request '!$H11*'Purchase Request '!$G11+'Purchase Request '!$I11</f>
+        <v>108.32</v>
+      </c>
+      <c r="L11" s="42"/>
+    </row>
+    <row r="12" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="36"/>
+      <c r="F12" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12" s="39" t="n">
+        <v>54.16</v>
+      </c>
+      <c r="I12" s="39"/>
+      <c r="J12" s="40" t="n">
+        <f aca="false">'Purchase Request '!$H12*'Purchase Request '!$G12+'Purchase Request '!$I12</f>
+        <v>108.32</v>
+      </c>
+      <c r="K12" s="41" t="n">
+        <f aca="false">'Purchase Request '!$H12*'Purchase Request '!$G12+'Purchase Request '!$I12</f>
+        <v>108.32</v>
+      </c>
+      <c r="L12" s="42"/>
+    </row>
+    <row r="13" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="32" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="36"/>
+      <c r="F13" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13" s="39" t="n">
+        <v>54.16</v>
+      </c>
+      <c r="I13" s="39"/>
+      <c r="J13" s="40" t="n">
+        <f aca="false">'Purchase Request '!$H13*'Purchase Request '!$G13+'Purchase Request '!$I13</f>
+        <v>108.32</v>
+      </c>
+      <c r="K13" s="41" t="n">
+        <f aca="false">'Purchase Request '!$H13*'Purchase Request '!$G13+'Purchase Request '!$I13</f>
+        <v>108.32</v>
+      </c>
+      <c r="L13" s="42"/>
+    </row>
+    <row r="14" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="32" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="36"/>
+      <c r="F14" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="38" t="n">
+        <v>4</v>
+      </c>
+      <c r="H14" s="39" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="I14" s="39"/>
+      <c r="J14" s="40" t="n">
+        <f aca="false">'Purchase Request '!$H14*'Purchase Request '!$G14+'Purchase Request '!$I14</f>
+        <v>66.32</v>
+      </c>
+      <c r="K14" s="41" t="n">
+        <f aca="false">'Purchase Request '!$H14*'Purchase Request '!$G14+'Purchase Request '!$I14</f>
+        <v>66.32</v>
+      </c>
+      <c r="L14" s="42"/>
+    </row>
+    <row r="15" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="32" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="36"/>
+      <c r="F15" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="38" t="n">
+        <v>4</v>
+      </c>
+      <c r="H15" s="39" t="n">
+        <v>16.99</v>
+      </c>
+      <c r="I15" s="39"/>
+      <c r="J15" s="40" t="n">
+        <f aca="false">'Purchase Request '!$H15*'Purchase Request '!$G15+'Purchase Request '!$I15</f>
+        <v>67.96</v>
+      </c>
+      <c r="K15" s="41" t="n">
+        <f aca="false">'Purchase Request '!$H15*'Purchase Request '!$G15+'Purchase Request '!$I15</f>
+        <v>67.96</v>
+      </c>
+      <c r="L15" s="42"/>
+    </row>
+    <row r="16" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="32" t="n">
+        <v>6</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="36"/>
+      <c r="F16" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="39" t="n">
+        <v>20</v>
+      </c>
+      <c r="I16" s="39"/>
+      <c r="J16" s="40" t="n">
+        <f aca="false">'Purchase Request '!$H16*'Purchase Request '!$G16+'Purchase Request '!$I16</f>
+        <v>20</v>
+      </c>
+      <c r="K16" s="41" t="n">
+        <f aca="false">'Purchase Request '!$H16*'Purchase Request '!$G16+'Purchase Request '!$I16</f>
+        <v>20</v>
+      </c>
+      <c r="L16" s="42"/>
+    </row>
+    <row r="17" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="32" t="n">
+        <v>7</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="36"/>
+      <c r="F17" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="H17" s="39" t="n">
+        <v>45.99</v>
+      </c>
+      <c r="I17" s="39"/>
+      <c r="J17" s="40" t="n">
+        <f aca="false">'Purchase Request '!$H17*'Purchase Request '!$G17+'Purchase Request '!$I17</f>
+        <v>91.98</v>
+      </c>
+      <c r="K17" s="41" t="n">
+        <f aca="false">'Purchase Request '!$H17*'Purchase Request '!$G17+'Purchase Request '!$I17</f>
+        <v>91.98</v>
+      </c>
+      <c r="L17" s="42"/>
+    </row>
+    <row r="18" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="32" t="n">
+        <v>8</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="36"/>
+      <c r="F18" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="39" t="n">
+        <v>14.99</v>
+      </c>
+      <c r="I18" s="39"/>
+      <c r="J18" s="40" t="n">
+        <f aca="false">'Purchase Request '!$H18*'Purchase Request '!$G18+'Purchase Request '!$I18</f>
+        <v>14.99</v>
+      </c>
+      <c r="K18" s="41" t="n">
+        <f aca="false">'Purchase Request '!$H18*'Purchase Request '!$G18+'Purchase Request '!$I18</f>
+        <v>14.99</v>
+      </c>
+      <c r="L18" s="42"/>
+    </row>
+    <row r="19" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="32" t="n">
+        <v>9</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" s="39" t="n">
+        <v>94</v>
+      </c>
+      <c r="I19" s="39"/>
+      <c r="J19" s="40" t="n">
+        <f aca="false">'Purchase Request '!$H19*'Purchase Request '!$G19+'Purchase Request '!$I19</f>
+        <v>94</v>
+      </c>
+      <c r="K19" s="41" t="n">
+        <f aca="false">'Purchase Request '!$H19*'Purchase Request '!$G19+'Purchase Request '!$I19</f>
+        <v>94</v>
+      </c>
+      <c r="L19" s="42"/>
+    </row>
+    <row r="20" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="32" t="n">
+        <v>10</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="36"/>
+      <c r="F20" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" s="38" t="n">
+        <v>4</v>
+      </c>
+      <c r="H20" s="39" t="n">
+        <v>39.99</v>
+      </c>
+      <c r="I20" s="39"/>
+      <c r="J20" s="40" t="n">
+        <f aca="false">'Purchase Request '!$H20*'Purchase Request '!$G20+'Purchase Request '!$I20</f>
+        <v>159.96</v>
+      </c>
+      <c r="K20" s="41" t="n">
+        <f aca="false">'Purchase Request '!$H20*'Purchase Request '!$G20+'Purchase Request '!$I20</f>
+        <v>159.96</v>
+      </c>
+      <c r="L20" s="42"/>
+    </row>
+    <row r="21" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="32" t="n">
+        <v>11</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" s="39" t="n">
+        <v>150</v>
+      </c>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39" t="n">
+        <v>150</v>
+      </c>
+      <c r="K21" s="41" t="n">
+        <f aca="false">'Purchase Request '!$H21*'Purchase Request '!$G21+'Purchase Request '!$I21</f>
+        <v>150</v>
+      </c>
+      <c r="L21" s="42"/>
+    </row>
+    <row r="22" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="32" t="n">
+        <v>12</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="36"/>
+      <c r="F22" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" s="39" t="n">
+        <v>8.11</v>
+      </c>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39" t="n">
+        <v>8.11</v>
+      </c>
+      <c r="K22" s="41" t="n">
+        <f aca="false">'Purchase Request '!$H22*'Purchase Request '!$G22+'Purchase Request '!$I22</f>
+        <v>8.11</v>
+      </c>
+      <c r="L22" s="42"/>
+    </row>
+    <row r="23" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="32" t="n">
+        <v>13</v>
+      </c>
+      <c r="B23" s="33"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="41" t="n">
+        <f aca="false">'Purchase Request '!$H23*'Purchase Request '!$G23+'Purchase Request '!$I23</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="42"/>
+    </row>
+    <row r="24" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="32" t="n">
+        <v>14</v>
+      </c>
+      <c r="B24" s="33"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="41" t="n">
+        <f aca="false">'Purchase Request '!$H24*'Purchase Request '!$G24+'Purchase Request '!$I24</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="42"/>
+    </row>
+    <row r="25" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="32" t="n">
         <v>15</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B25" s="33"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="40" t="n">
+        <f aca="false">'Purchase Request '!$H25*'Purchase Request '!$G25+'Purchase Request '!$I25</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="41" t="n">
+        <f aca="false">'Purchase Request '!$H25*'Purchase Request '!$G25+'Purchase Request '!$I25</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="42"/>
+    </row>
+    <row r="26" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="32" t="n">
         <v>16</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="B26" s="33"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="40" t="n">
+        <f aca="false">'Purchase Request '!$H26*'Purchase Request '!$G26+'Purchase Request '!$I26</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="41" t="n">
+        <f aca="false">'Purchase Request '!$H26*'Purchase Request '!$G26+'Purchase Request '!$I26</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="42"/>
+    </row>
+    <row r="27" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="32" t="n">
         <v>17</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="B27" s="33"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="40" t="n">
+        <f aca="false">'Purchase Request '!$H27*'Purchase Request '!$G27+'Purchase Request '!$I27</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="41" t="n">
+        <f aca="false">'Purchase Request '!$H27*'Purchase Request '!$G27+'Purchase Request '!$I27</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="42"/>
+    </row>
+    <row r="28" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="32" t="n">
         <v>18</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="B28" s="33"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="40" t="n">
+        <f aca="false">'Purchase Request '!$H28*'Purchase Request '!$G28+'Purchase Request '!$I28</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="41" t="n">
+        <f aca="false">'Purchase Request '!$H28*'Purchase Request '!$G28+'Purchase Request '!$I28</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="42"/>
+    </row>
+    <row r="29" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="32" t="n">
         <v>19</v>
       </c>
-      <c r="F10" s="33" t="s">
+      <c r="B29" s="33"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="40" t="n">
+        <f aca="false">'Purchase Request '!$H29*'Purchase Request '!$G29+'Purchase Request '!$I29</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="41" t="n">
+        <f aca="false">'Purchase Request '!$H29*'Purchase Request '!$G29+'Purchase Request '!$I29</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="42"/>
+    </row>
+    <row r="30" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="32" t="n">
         <v>20</v>
       </c>
-      <c r="G10" s="34" t="s">
+      <c r="B30" s="33"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="40" t="n">
+        <f aca="false">'Purchase Request '!$H30*'Purchase Request '!$G30+'Purchase Request '!$I30</f>
+        <v>0</v>
+      </c>
+      <c r="K30" s="41" t="n">
+        <f aca="false">'Purchase Request '!$H30*'Purchase Request '!$G30+'Purchase Request '!$I30</f>
+        <v>0</v>
+      </c>
+      <c r="L30" s="42"/>
+    </row>
+    <row r="31" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="32" t="n">
         <v>21</v>
       </c>
-      <c r="H10" s="33" t="s">
+      <c r="B31" s="33"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="40" t="n">
+        <f aca="false">'Purchase Request '!$H31*'Purchase Request '!$G31+'Purchase Request '!$I31</f>
+        <v>0</v>
+      </c>
+      <c r="K31" s="41" t="n">
+        <f aca="false">'Purchase Request '!$H31*'Purchase Request '!$G31+'Purchase Request '!$I31</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="42"/>
+    </row>
+    <row r="32" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="32" t="n">
         <v>22</v>
       </c>
-      <c r="I10" s="33" t="s">
+      <c r="B32" s="33"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="40" t="n">
+        <f aca="false">'Purchase Request '!$H32*'Purchase Request '!$G32+'Purchase Request '!$I32</f>
+        <v>0</v>
+      </c>
+      <c r="K32" s="41" t="n">
+        <f aca="false">'Purchase Request '!$H32*'Purchase Request '!$G32+'Purchase Request '!$I32</f>
+        <v>0</v>
+      </c>
+      <c r="L32" s="42"/>
+    </row>
+    <row r="33" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="32" t="n">
         <v>23</v>
       </c>
-      <c r="J10" s="34" t="s">
+      <c r="B33" s="33"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="40" t="n">
+        <f aca="false">'Purchase Request '!$H33*'Purchase Request '!$G33+'Purchase Request '!$I33</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="41" t="n">
+        <f aca="false">'Purchase Request '!$H33*'Purchase Request '!$G33+'Purchase Request '!$I33</f>
+        <v>0</v>
+      </c>
+      <c r="L33" s="42"/>
+    </row>
+    <row r="34" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="32" t="n">
         <v>24</v>
       </c>
-      <c r="K10" s="35" t="s">
+      <c r="B34" s="33"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="40" t="n">
+        <f aca="false">'Purchase Request '!$H34*'Purchase Request '!$G34+'Purchase Request '!$I34</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="41" t="n">
+        <f aca="false">'Purchase Request '!$H34*'Purchase Request '!$G34+'Purchase Request '!$I34</f>
+        <v>0</v>
+      </c>
+      <c r="L34" s="42"/>
+    </row>
+    <row r="35" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="32" t="n">
         <v>25</v>
       </c>
-      <c r="L10" s="36" t="s">
+      <c r="B35" s="33"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="40" t="n">
+        <f aca="false">'Purchase Request '!$H35*'Purchase Request '!$G35+'Purchase Request '!$I35</f>
+        <v>0</v>
+      </c>
+      <c r="K35" s="41" t="n">
+        <f aca="false">'Purchase Request '!$H35*'Purchase Request '!$G35+'Purchase Request '!$I35</f>
+        <v>0</v>
+      </c>
+      <c r="L35" s="42"/>
+    </row>
+    <row r="36" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="32" t="n">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="45" t="n">
-        <f aca="false">'Purchase Request '!$H11*'Purchase Request '!$G11+'Purchase Request '!$I11</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="46" t="n">
-        <f aca="false">'Purchase Request '!$H11*'Purchase Request '!$G11+'Purchase Request '!$I11</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="47"/>
-    </row>
-    <row r="12" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="37" t="n">
-        <v>2</v>
-      </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="45" t="n">
-        <f aca="false">'Purchase Request '!$H12*'Purchase Request '!$G12+'Purchase Request '!$I12</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="46" t="n">
-        <f aca="false">'Purchase Request '!$H12*'Purchase Request '!$G12+'Purchase Request '!$I12</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="47"/>
-    </row>
-    <row r="13" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="37" t="n">
-        <v>3</v>
-      </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="45" t="n">
-        <f aca="false">'Purchase Request '!$H13*'Purchase Request '!$G13+'Purchase Request '!$I13</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="46" t="n">
-        <f aca="false">'Purchase Request '!$H13*'Purchase Request '!$G13+'Purchase Request '!$I13</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="47"/>
-    </row>
-    <row r="14" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="37" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="45" t="n">
-        <f aca="false">'Purchase Request '!$H14*'Purchase Request '!$G14+'Purchase Request '!$I14</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="46" t="n">
-        <f aca="false">'Purchase Request '!$H14*'Purchase Request '!$G14+'Purchase Request '!$I14</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="47"/>
-    </row>
-    <row r="15" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="37" t="n">
-        <v>5</v>
-      </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="45" t="n">
-        <f aca="false">'Purchase Request '!$H15*'Purchase Request '!$G15+'Purchase Request '!$I15</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="46" t="n">
-        <f aca="false">'Purchase Request '!$H15*'Purchase Request '!$G15+'Purchase Request '!$I15</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="47"/>
-    </row>
-    <row r="16" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="37" t="n">
-        <v>6</v>
-      </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="45" t="n">
-        <f aca="false">'Purchase Request '!$H16*'Purchase Request '!$G16+'Purchase Request '!$I16</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="46" t="n">
-        <f aca="false">'Purchase Request '!$H16*'Purchase Request '!$G16+'Purchase Request '!$I16</f>
-        <v>0</v>
-      </c>
-      <c r="L16" s="47"/>
-    </row>
-    <row r="17" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="37" t="n">
-        <v>7</v>
-      </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="45" t="n">
-        <f aca="false">'Purchase Request '!$H17*'Purchase Request '!$G17+'Purchase Request '!$I17</f>
-        <v>0</v>
-      </c>
-      <c r="K17" s="46" t="n">
-        <f aca="false">'Purchase Request '!$H17*'Purchase Request '!$G17+'Purchase Request '!$I17</f>
-        <v>0</v>
-      </c>
-      <c r="L17" s="47"/>
-    </row>
-    <row r="18" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="45" t="n">
-        <f aca="false">'Purchase Request '!$H18*'Purchase Request '!$G18+'Purchase Request '!$I18</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="46" t="n">
-        <f aca="false">'Purchase Request '!$H18*'Purchase Request '!$G18+'Purchase Request '!$I18</f>
-        <v>0</v>
-      </c>
-      <c r="L18" s="47"/>
-    </row>
-    <row r="19" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="37" t="n">
-        <v>9</v>
-      </c>
-      <c r="B19" s="48"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="45" t="n">
-        <f aca="false">'Purchase Request '!$H19*'Purchase Request '!$G19+'Purchase Request '!$I19</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="46" t="n">
-        <f aca="false">'Purchase Request '!$H19*'Purchase Request '!$G19+'Purchase Request '!$I19</f>
-        <v>0</v>
-      </c>
-      <c r="L19" s="47"/>
-    </row>
-    <row r="20" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="37" t="n">
-        <v>10</v>
-      </c>
-      <c r="B20" s="48"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="45" t="n">
-        <f aca="false">'Purchase Request '!$H20*'Purchase Request '!$G20+'Purchase Request '!$I20</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="46" t="n">
-        <f aca="false">'Purchase Request '!$H20*'Purchase Request '!$G20+'Purchase Request '!$I20</f>
-        <v>0</v>
-      </c>
-      <c r="L20" s="47"/>
-    </row>
-    <row r="21" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="37" t="n">
-        <v>11</v>
-      </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="45" t="n">
-        <f aca="false">'Purchase Request '!$H21*'Purchase Request '!$G21+'Purchase Request '!$I21</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="46" t="n">
-        <f aca="false">'Purchase Request '!$H21*'Purchase Request '!$G21+'Purchase Request '!$I21</f>
-        <v>0</v>
-      </c>
-      <c r="L21" s="47"/>
-    </row>
-    <row r="22" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="37" t="n">
-        <v>12</v>
-      </c>
-      <c r="B22" s="48"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="45" t="n">
-        <f aca="false">'Purchase Request '!$H22*'Purchase Request '!$G22+'Purchase Request '!$I22</f>
-        <v>0</v>
-      </c>
-      <c r="K22" s="46" t="n">
-        <f aca="false">'Purchase Request '!$H22*'Purchase Request '!$G22+'Purchase Request '!$I22</f>
-        <v>0</v>
-      </c>
-      <c r="L22" s="47"/>
-    </row>
-    <row r="23" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="37" t="n">
-        <v>13</v>
-      </c>
-      <c r="B23" s="48"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="45" t="n">
-        <f aca="false">'Purchase Request '!$H23*'Purchase Request '!$G23+'Purchase Request '!$I23</f>
-        <v>0</v>
-      </c>
-      <c r="K23" s="46" t="n">
-        <f aca="false">'Purchase Request '!$H23*'Purchase Request '!$G23+'Purchase Request '!$I23</f>
-        <v>0</v>
-      </c>
-      <c r="L23" s="47"/>
-    </row>
-    <row r="24" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="37" t="n">
-        <v>14</v>
-      </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="45" t="n">
-        <f aca="false">'Purchase Request '!$H24*'Purchase Request '!$G24+'Purchase Request '!$I24</f>
-        <v>0</v>
-      </c>
-      <c r="K24" s="46" t="n">
-        <f aca="false">'Purchase Request '!$H24*'Purchase Request '!$G24+'Purchase Request '!$I24</f>
-        <v>0</v>
-      </c>
-      <c r="L24" s="47"/>
-    </row>
-    <row r="25" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="37" t="n">
-        <v>15</v>
-      </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="45" t="n">
-        <f aca="false">'Purchase Request '!$H25*'Purchase Request '!$G25+'Purchase Request '!$I25</f>
-        <v>0</v>
-      </c>
-      <c r="K25" s="46" t="n">
-        <f aca="false">'Purchase Request '!$H25*'Purchase Request '!$G25+'Purchase Request '!$I25</f>
-        <v>0</v>
-      </c>
-      <c r="L25" s="47"/>
-    </row>
-    <row r="26" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="37" t="n">
-        <v>16</v>
-      </c>
-      <c r="B26" s="38"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="45" t="n">
-        <f aca="false">'Purchase Request '!$H26*'Purchase Request '!$G26+'Purchase Request '!$I26</f>
-        <v>0</v>
-      </c>
-      <c r="K26" s="46" t="n">
-        <f aca="false">'Purchase Request '!$H26*'Purchase Request '!$G26+'Purchase Request '!$I26</f>
-        <v>0</v>
-      </c>
-      <c r="L26" s="47"/>
-    </row>
-    <row r="27" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="37" t="n">
-        <v>17</v>
-      </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="45" t="n">
-        <f aca="false">'Purchase Request '!$H27*'Purchase Request '!$G27+'Purchase Request '!$I27</f>
-        <v>0</v>
-      </c>
-      <c r="K27" s="46" t="n">
-        <f aca="false">'Purchase Request '!$H27*'Purchase Request '!$G27+'Purchase Request '!$I27</f>
-        <v>0</v>
-      </c>
-      <c r="L27" s="47"/>
-    </row>
-    <row r="28" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="37" t="n">
-        <v>18</v>
-      </c>
-      <c r="B28" s="38"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="45" t="n">
-        <f aca="false">'Purchase Request '!$H28*'Purchase Request '!$G28+'Purchase Request '!$I28</f>
-        <v>0</v>
-      </c>
-      <c r="K28" s="46" t="n">
-        <f aca="false">'Purchase Request '!$H28*'Purchase Request '!$G28+'Purchase Request '!$I28</f>
-        <v>0</v>
-      </c>
-      <c r="L28" s="47"/>
-    </row>
-    <row r="29" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="37" t="n">
-        <v>19</v>
-      </c>
-      <c r="B29" s="48"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="45" t="n">
-        <f aca="false">'Purchase Request '!$H29*'Purchase Request '!$G29+'Purchase Request '!$I29</f>
-        <v>0</v>
-      </c>
-      <c r="K29" s="46" t="n">
-        <f aca="false">'Purchase Request '!$H29*'Purchase Request '!$G29+'Purchase Request '!$I29</f>
-        <v>0</v>
-      </c>
-      <c r="L29" s="47"/>
-    </row>
-    <row r="30" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="37" t="n">
-        <v>20</v>
-      </c>
-      <c r="B30" s="48"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="45" t="n">
-        <f aca="false">'Purchase Request '!$H30*'Purchase Request '!$G30+'Purchase Request '!$I30</f>
-        <v>0</v>
-      </c>
-      <c r="K30" s="46" t="n">
-        <f aca="false">'Purchase Request '!$H30*'Purchase Request '!$G30+'Purchase Request '!$I30</f>
-        <v>0</v>
-      </c>
-      <c r="L30" s="47"/>
-    </row>
-    <row r="31" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="37" t="n">
-        <v>21</v>
-      </c>
-      <c r="B31" s="48"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="45" t="n">
-        <f aca="false">'Purchase Request '!$H31*'Purchase Request '!$G31+'Purchase Request '!$I31</f>
-        <v>0</v>
-      </c>
-      <c r="K31" s="46" t="n">
-        <f aca="false">'Purchase Request '!$H31*'Purchase Request '!$G31+'Purchase Request '!$I31</f>
-        <v>0</v>
-      </c>
-      <c r="L31" s="47"/>
-    </row>
-    <row r="32" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="37" t="n">
-        <v>22</v>
-      </c>
-      <c r="B32" s="48"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="45" t="n">
-        <f aca="false">'Purchase Request '!$H32*'Purchase Request '!$G32+'Purchase Request '!$I32</f>
-        <v>0</v>
-      </c>
-      <c r="K32" s="46" t="n">
-        <f aca="false">'Purchase Request '!$H32*'Purchase Request '!$G32+'Purchase Request '!$I32</f>
-        <v>0</v>
-      </c>
-      <c r="L32" s="47"/>
-    </row>
-    <row r="33" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="37" t="n">
-        <v>23</v>
-      </c>
-      <c r="B33" s="48"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="52" t="n">
-        <f aca="false">'Purchase Request '!$H33*'Purchase Request '!$G33+'Purchase Request '!$I33</f>
-        <v>0</v>
-      </c>
-      <c r="K33" s="46" t="n">
-        <f aca="false">'Purchase Request '!$H33*'Purchase Request '!$G33+'Purchase Request '!$I33</f>
-        <v>0</v>
-      </c>
-      <c r="L33" s="47"/>
-    </row>
-    <row r="34" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="37" t="n">
-        <v>24</v>
-      </c>
-      <c r="B34" s="48"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="52" t="n">
-        <f aca="false">'Purchase Request '!$H34*'Purchase Request '!$G34+'Purchase Request '!$I34</f>
-        <v>0</v>
-      </c>
-      <c r="K34" s="46" t="n">
-        <f aca="false">'Purchase Request '!$H34*'Purchase Request '!$G34+'Purchase Request '!$I34</f>
-        <v>0</v>
-      </c>
-      <c r="L34" s="47"/>
-    </row>
-    <row r="35" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="37" t="n">
-        <v>25</v>
-      </c>
-      <c r="B35" s="48"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="52" t="n">
-        <f aca="false">'Purchase Request '!$H35*'Purchase Request '!$G35+'Purchase Request '!$I35</f>
-        <v>0</v>
-      </c>
-      <c r="K35" s="46" t="n">
-        <f aca="false">'Purchase Request '!$H35*'Purchase Request '!$G35+'Purchase Request '!$I35</f>
-        <v>0</v>
-      </c>
-      <c r="L35" s="47"/>
-    </row>
-    <row r="36" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="37" t="n">
-        <v>26</v>
-      </c>
-      <c r="B36" s="48"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="52" t="n">
+      <c r="B36" s="33"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="40" t="n">
         <f aca="false">'Purchase Request '!$H36*'Purchase Request '!$G36+'Purchase Request '!$I36</f>
         <v>0</v>
       </c>
-      <c r="K36" s="46" t="n">
+      <c r="K36" s="41" t="n">
         <f aca="false">'Purchase Request '!$H36*'Purchase Request '!$G36+'Purchase Request '!$I36</f>
         <v>0</v>
       </c>
-      <c r="L36" s="47"/>
+      <c r="L36" s="42"/>
     </row>
     <row r="37" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="37" t="n">
+      <c r="A37" s="32" t="n">
         <v>27</v>
       </c>
-      <c r="B37" s="48"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="52" t="n">
+      <c r="B37" s="33"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="40" t="n">
         <f aca="false">'Purchase Request '!$H37*'Purchase Request '!$G37+'Purchase Request '!$I37</f>
         <v>0</v>
       </c>
-      <c r="K37" s="46" t="n">
+      <c r="K37" s="41" t="n">
         <f aca="false">'Purchase Request '!$H37*'Purchase Request '!$G37+'Purchase Request '!$I37</f>
         <v>0</v>
       </c>
-      <c r="L37" s="47"/>
+      <c r="L37" s="42"/>
     </row>
     <row r="38" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="37" t="n">
+      <c r="A38" s="32" t="n">
         <v>28</v>
       </c>
-      <c r="B38" s="48"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="50"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="52" t="n">
+      <c r="B38" s="33"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="40" t="n">
         <f aca="false">'Purchase Request '!$H38*'Purchase Request '!$G38+'Purchase Request '!$I38</f>
         <v>0</v>
       </c>
-      <c r="K38" s="46" t="n">
+      <c r="K38" s="41" t="n">
         <f aca="false">'Purchase Request '!$H38*'Purchase Request '!$G38+'Purchase Request '!$I38</f>
         <v>0</v>
       </c>
-      <c r="L38" s="47"/>
+      <c r="L38" s="42"/>
     </row>
     <row r="39" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="37" t="n">
+      <c r="A39" s="32" t="n">
         <v>29</v>
       </c>
-      <c r="B39" s="48"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="52" t="n">
+      <c r="B39" s="33"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="40" t="n">
         <f aca="false">'Purchase Request '!$H39*'Purchase Request '!$G39+'Purchase Request '!$I39</f>
         <v>0</v>
       </c>
-      <c r="K39" s="46" t="n">
+      <c r="K39" s="41" t="n">
         <f aca="false">'Purchase Request '!$H39*'Purchase Request '!$G39+'Purchase Request '!$I39</f>
         <v>0</v>
       </c>
-      <c r="L39" s="47"/>
+      <c r="L39" s="42"/>
     </row>
     <row r="40" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="37" t="n">
+      <c r="A40" s="32" t="n">
         <v>30</v>
       </c>
-      <c r="B40" s="48"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="50"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="52" t="n">
+      <c r="B40" s="33"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="40" t="n">
         <f aca="false">'Purchase Request '!$H40*'Purchase Request '!$G40+'Purchase Request '!$I40</f>
         <v>0</v>
       </c>
-      <c r="K40" s="46" t="n">
+      <c r="K40" s="41" t="n">
         <f aca="false">'Purchase Request '!$H40*'Purchase Request '!$G40+'Purchase Request '!$I40</f>
         <v>0</v>
       </c>
-      <c r="L40" s="47"/>
+      <c r="L40" s="42"/>
     </row>
     <row r="41" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="37" t="n">
+      <c r="A41" s="32" t="n">
         <v>31</v>
       </c>
-      <c r="B41" s="48"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="50"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="52" t="n">
+      <c r="B41" s="33"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="40" t="n">
         <f aca="false">'Purchase Request '!$H41*'Purchase Request '!$G41+'Purchase Request '!$I41</f>
         <v>0</v>
       </c>
-      <c r="K41" s="46" t="n">
+      <c r="K41" s="41" t="n">
         <f aca="false">'Purchase Request '!$H41*'Purchase Request '!$G41+'Purchase Request '!$I41</f>
         <v>0</v>
       </c>
-      <c r="L41" s="47"/>
+      <c r="L41" s="42"/>
     </row>
     <row r="42" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="37" t="n">
+      <c r="A42" s="32" t="n">
         <v>32</v>
       </c>
-      <c r="B42" s="48"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="50"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="43"/>
-      <c r="H42" s="44"/>
-      <c r="I42" s="44"/>
-      <c r="J42" s="52" t="n">
+      <c r="B42" s="33"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="40" t="n">
         <f aca="false">'Purchase Request '!$H42*'Purchase Request '!$G42+'Purchase Request '!$I42</f>
         <v>0</v>
       </c>
-      <c r="K42" s="46" t="n">
+      <c r="K42" s="41" t="n">
         <f aca="false">'Purchase Request '!$H42*'Purchase Request '!$G42+'Purchase Request '!$I42</f>
         <v>0</v>
       </c>
-      <c r="L42" s="47"/>
+      <c r="L42" s="42"/>
     </row>
     <row r="43" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="37" t="n">
+      <c r="A43" s="32" t="n">
         <v>33</v>
       </c>
-      <c r="B43" s="48"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="50"/>
-      <c r="E43" s="51"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="43"/>
-      <c r="H43" s="44"/>
-      <c r="I43" s="44"/>
-      <c r="J43" s="52" t="n">
+      <c r="B43" s="33"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="40" t="n">
         <f aca="false">'Purchase Request '!$H43*'Purchase Request '!$G43+'Purchase Request '!$I43</f>
         <v>0</v>
       </c>
-      <c r="K43" s="46" t="n">
+      <c r="K43" s="41" t="n">
         <f aca="false">'Purchase Request '!$H43*'Purchase Request '!$G43+'Purchase Request '!$I43</f>
         <v>0</v>
       </c>
-      <c r="L43" s="47"/>
+      <c r="L43" s="42"/>
     </row>
     <row r="44" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="37" t="n">
+      <c r="A44" s="32" t="n">
         <v>34</v>
       </c>
-      <c r="B44" s="48"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="50"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="44"/>
-      <c r="I44" s="44"/>
-      <c r="J44" s="52" t="n">
+      <c r="B44" s="33"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="39"/>
+      <c r="I44" s="39"/>
+      <c r="J44" s="40" t="n">
         <f aca="false">'Purchase Request '!$H44*'Purchase Request '!$G44+'Purchase Request '!$I44</f>
         <v>0</v>
       </c>
-      <c r="K44" s="46" t="n">
+      <c r="K44" s="41" t="n">
         <f aca="false">'Purchase Request '!$H44*'Purchase Request '!$G44+'Purchase Request '!$I44</f>
         <v>0</v>
       </c>
-      <c r="L44" s="47"/>
+      <c r="L44" s="42"/>
     </row>
     <row r="45" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="37" t="n">
+      <c r="A45" s="32" t="n">
         <v>35</v>
       </c>
-      <c r="B45" s="48"/>
-      <c r="C45" s="49"/>
-      <c r="D45" s="50"/>
-      <c r="E45" s="51"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="43"/>
-      <c r="H45" s="44"/>
-      <c r="I45" s="44"/>
-      <c r="J45" s="52" t="n">
+      <c r="B45" s="33"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="40" t="n">
         <f aca="false">'Purchase Request '!$H45*'Purchase Request '!$G45+'Purchase Request '!$I45</f>
         <v>0</v>
       </c>
-      <c r="K45" s="46" t="n">
+      <c r="K45" s="41" t="n">
         <f aca="false">'Purchase Request '!$H45*'Purchase Request '!$G45+'Purchase Request '!$I45</f>
         <v>0</v>
       </c>
-      <c r="L45" s="47"/>
+      <c r="L45" s="42"/>
     </row>
     <row r="46" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="37" t="n">
+      <c r="A46" s="32" t="n">
         <v>36</v>
       </c>
-      <c r="B46" s="48"/>
-      <c r="C46" s="49"/>
-      <c r="D46" s="50"/>
-      <c r="E46" s="51"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="43"/>
-      <c r="H46" s="44"/>
-      <c r="I46" s="44"/>
-      <c r="J46" s="52" t="n">
+      <c r="B46" s="33"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="40" t="n">
         <f aca="false">'Purchase Request '!$H46*'Purchase Request '!$G46+'Purchase Request '!$I46</f>
         <v>0</v>
       </c>
-      <c r="K46" s="46" t="n">
+      <c r="K46" s="41" t="n">
         <f aca="false">'Purchase Request '!$H46*'Purchase Request '!$G46+'Purchase Request '!$I46</f>
         <v>0</v>
       </c>
-      <c r="L46" s="47"/>
+      <c r="L46" s="42"/>
     </row>
     <row r="47" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="37" t="n">
+      <c r="A47" s="32" t="n">
         <v>37</v>
       </c>
-      <c r="B47" s="48"/>
-      <c r="C47" s="49"/>
-      <c r="D47" s="50"/>
-      <c r="E47" s="51"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="43"/>
-      <c r="H47" s="44"/>
-      <c r="I47" s="44"/>
-      <c r="J47" s="52" t="n">
+      <c r="B47" s="33"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="40" t="n">
         <f aca="false">'Purchase Request '!$H47*'Purchase Request '!$G47+'Purchase Request '!$I47</f>
         <v>0</v>
       </c>
-      <c r="K47" s="46" t="n">
+      <c r="K47" s="41" t="n">
         <f aca="false">'Purchase Request '!$H47*'Purchase Request '!$G47+'Purchase Request '!$I47</f>
         <v>0</v>
       </c>
-      <c r="L47" s="47"/>
+      <c r="L47" s="42"/>
     </row>
     <row r="48" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="37" t="n">
+      <c r="A48" s="32" t="n">
         <v>38</v>
       </c>
-      <c r="B48" s="48"/>
-      <c r="C48" s="49"/>
-      <c r="D48" s="50"/>
-      <c r="E48" s="51"/>
-      <c r="F48" s="42"/>
-      <c r="G48" s="43"/>
-      <c r="H48" s="44"/>
-      <c r="I48" s="44"/>
-      <c r="J48" s="52" t="n">
+      <c r="B48" s="33"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="38"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="40" t="n">
         <f aca="false">'Purchase Request '!$H48*'Purchase Request '!$G48+'Purchase Request '!$I48</f>
         <v>0</v>
       </c>
-      <c r="K48" s="46" t="n">
+      <c r="K48" s="41" t="n">
         <f aca="false">'Purchase Request '!$H48*'Purchase Request '!$G48+'Purchase Request '!$I48</f>
         <v>0</v>
       </c>
-      <c r="L48" s="47"/>
+      <c r="L48" s="42"/>
     </row>
     <row r="49" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="37" t="n">
+      <c r="A49" s="32" t="n">
         <v>39</v>
       </c>
-      <c r="B49" s="48"/>
-      <c r="C49" s="49"/>
-      <c r="D49" s="50"/>
-      <c r="E49" s="51"/>
-      <c r="F49" s="42"/>
-      <c r="G49" s="43"/>
-      <c r="H49" s="44"/>
-      <c r="I49" s="44"/>
-      <c r="J49" s="52" t="n">
+      <c r="B49" s="33"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="40" t="n">
         <f aca="false">'Purchase Request '!$H49*'Purchase Request '!$G49+'Purchase Request '!$I49</f>
         <v>0</v>
       </c>
-      <c r="K49" s="46" t="n">
+      <c r="K49" s="41" t="n">
         <f aca="false">'Purchase Request '!$H49*'Purchase Request '!$G49+'Purchase Request '!$I49</f>
         <v>0</v>
       </c>
-      <c r="L49" s="47"/>
+      <c r="L49" s="42"/>
     </row>
     <row r="50" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="37" t="n">
+      <c r="A50" s="32" t="n">
         <v>40</v>
       </c>
-      <c r="B50" s="48"/>
-      <c r="C50" s="49"/>
-      <c r="D50" s="50"/>
-      <c r="E50" s="51"/>
-      <c r="F50" s="42"/>
-      <c r="G50" s="43"/>
-      <c r="H50" s="44"/>
-      <c r="I50" s="44"/>
-      <c r="J50" s="52" t="n">
+      <c r="B50" s="33"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="40" t="n">
         <f aca="false">'Purchase Request '!$H50*'Purchase Request '!$G50+'Purchase Request '!$I50</f>
         <v>0</v>
       </c>
-      <c r="K50" s="46" t="n">
+      <c r="K50" s="41" t="n">
         <f aca="false">'Purchase Request '!$H50*'Purchase Request '!$G50+'Purchase Request '!$I50</f>
         <v>0</v>
       </c>
-      <c r="L50" s="47"/>
+      <c r="L50" s="42"/>
     </row>
     <row r="51" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="37" t="n">
+      <c r="A51" s="32" t="n">
         <v>41</v>
       </c>
-      <c r="B51" s="48"/>
-      <c r="C51" s="49"/>
-      <c r="D51" s="50"/>
-      <c r="E51" s="51"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="43"/>
-      <c r="H51" s="44"/>
-      <c r="I51" s="44"/>
-      <c r="J51" s="52" t="n">
+      <c r="B51" s="33"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="39"/>
+      <c r="I51" s="39"/>
+      <c r="J51" s="40" t="n">
         <f aca="false">'Purchase Request '!$H51*'Purchase Request '!$G51+'Purchase Request '!$I51</f>
         <v>0</v>
       </c>
-      <c r="K51" s="46" t="n">
+      <c r="K51" s="41" t="n">
         <f aca="false">'Purchase Request '!$H51*'Purchase Request '!$G51+'Purchase Request '!$I51</f>
         <v>0</v>
       </c>
-      <c r="L51" s="47"/>
+      <c r="L51" s="42"/>
     </row>
     <row r="52" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="37" t="n">
+      <c r="A52" s="32" t="n">
         <v>42</v>
       </c>
-      <c r="B52" s="48"/>
-      <c r="C52" s="49"/>
-      <c r="D52" s="50"/>
-      <c r="E52" s="51"/>
-      <c r="F52" s="42"/>
-      <c r="G52" s="43"/>
-      <c r="H52" s="44"/>
-      <c r="I52" s="44"/>
-      <c r="J52" s="52" t="n">
+      <c r="B52" s="33"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="39"/>
+      <c r="J52" s="40" t="n">
         <f aca="false">'Purchase Request '!$H52*'Purchase Request '!$G52+'Purchase Request '!$I52</f>
         <v>0</v>
       </c>
-      <c r="K52" s="46" t="n">
+      <c r="K52" s="41" t="n">
         <f aca="false">'Purchase Request '!$H52*'Purchase Request '!$G52+'Purchase Request '!$I52</f>
         <v>0</v>
       </c>
-      <c r="L52" s="47"/>
+      <c r="L52" s="42"/>
     </row>
     <row r="53" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="37" t="n">
+      <c r="A53" s="32" t="n">
         <v>43</v>
       </c>
-      <c r="B53" s="48"/>
-      <c r="C53" s="49"/>
-      <c r="D53" s="50"/>
-      <c r="E53" s="51"/>
-      <c r="F53" s="42"/>
-      <c r="G53" s="43"/>
-      <c r="H53" s="44"/>
-      <c r="I53" s="44"/>
-      <c r="J53" s="52" t="n">
+      <c r="B53" s="33"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="40" t="n">
         <f aca="false">'Purchase Request '!$H53*'Purchase Request '!$G53+'Purchase Request '!$I53</f>
         <v>0</v>
       </c>
-      <c r="K53" s="46" t="n">
+      <c r="K53" s="41" t="n">
         <f aca="false">'Purchase Request '!$H53*'Purchase Request '!$G53+'Purchase Request '!$I53</f>
         <v>0</v>
       </c>
-      <c r="L53" s="47"/>
+      <c r="L53" s="42"/>
     </row>
     <row r="54" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="37" t="n">
+      <c r="A54" s="32" t="n">
         <v>44</v>
       </c>
-      <c r="B54" s="48"/>
-      <c r="C54" s="49"/>
-      <c r="D54" s="50"/>
-      <c r="E54" s="51"/>
-      <c r="F54" s="42"/>
-      <c r="G54" s="43"/>
-      <c r="H54" s="44"/>
-      <c r="I54" s="44"/>
-      <c r="J54" s="52" t="n">
+      <c r="B54" s="33"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="38"/>
+      <c r="H54" s="39"/>
+      <c r="I54" s="39"/>
+      <c r="J54" s="40" t="n">
         <f aca="false">'Purchase Request '!$H54*'Purchase Request '!$G54+'Purchase Request '!$I54</f>
         <v>0</v>
       </c>
-      <c r="K54" s="46" t="n">
+      <c r="K54" s="41" t="n">
         <f aca="false">'Purchase Request '!$H54*'Purchase Request '!$G54+'Purchase Request '!$I54</f>
         <v>0</v>
       </c>
-      <c r="L54" s="47"/>
+      <c r="L54" s="42"/>
     </row>
     <row r="55" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="37" t="n">
+      <c r="A55" s="32" t="n">
         <v>45</v>
       </c>
-      <c r="B55" s="48"/>
-      <c r="C55" s="49"/>
-      <c r="D55" s="50"/>
-      <c r="E55" s="51"/>
-      <c r="F55" s="42"/>
-      <c r="G55" s="43"/>
-      <c r="H55" s="44"/>
-      <c r="I55" s="44"/>
-      <c r="J55" s="52" t="n">
+      <c r="B55" s="33"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="35"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="39"/>
+      <c r="J55" s="40" t="n">
         <f aca="false">'Purchase Request '!$H55*'Purchase Request '!$G55+'Purchase Request '!$I55</f>
         <v>0</v>
       </c>
-      <c r="K55" s="46" t="n">
+      <c r="K55" s="41" t="n">
         <f aca="false">'Purchase Request '!$H55*'Purchase Request '!$G55+'Purchase Request '!$I55</f>
         <v>0</v>
       </c>
-      <c r="L55" s="47"/>
+      <c r="L55" s="42"/>
     </row>
     <row r="56" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="37" t="n">
+      <c r="A56" s="32" t="n">
         <v>46</v>
       </c>
-      <c r="B56" s="48"/>
-      <c r="C56" s="49"/>
-      <c r="D56" s="50"/>
-      <c r="E56" s="51"/>
-      <c r="F56" s="42"/>
-      <c r="G56" s="43"/>
-      <c r="H56" s="44"/>
-      <c r="I56" s="44"/>
-      <c r="J56" s="52" t="n">
+      <c r="B56" s="33"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="39"/>
+      <c r="I56" s="39"/>
+      <c r="J56" s="40" t="n">
         <f aca="false">'Purchase Request '!$H56*'Purchase Request '!$G56+'Purchase Request '!$I56</f>
         <v>0</v>
       </c>
-      <c r="K56" s="46" t="n">
+      <c r="K56" s="41" t="n">
         <f aca="false">'Purchase Request '!$H56*'Purchase Request '!$G56+'Purchase Request '!$I56</f>
         <v>0</v>
       </c>
-      <c r="L56" s="47"/>
+      <c r="L56" s="42"/>
     </row>
     <row r="57" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="37" t="n">
+      <c r="A57" s="32" t="n">
         <v>47</v>
       </c>
-      <c r="B57" s="48"/>
-      <c r="C57" s="49"/>
-      <c r="D57" s="50"/>
-      <c r="E57" s="51"/>
-      <c r="F57" s="42"/>
-      <c r="G57" s="43"/>
-      <c r="H57" s="44"/>
-      <c r="I57" s="44"/>
-      <c r="J57" s="52" t="n">
+      <c r="B57" s="33"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="38"/>
+      <c r="H57" s="39"/>
+      <c r="I57" s="39"/>
+      <c r="J57" s="40" t="n">
         <f aca="false">'Purchase Request '!$H57*'Purchase Request '!$G57+'Purchase Request '!$I57</f>
         <v>0</v>
       </c>
-      <c r="K57" s="46" t="n">
+      <c r="K57" s="41" t="n">
         <f aca="false">'Purchase Request '!$H57*'Purchase Request '!$G57+'Purchase Request '!$I57</f>
         <v>0</v>
       </c>
-      <c r="L57" s="47"/>
+      <c r="L57" s="42"/>
     </row>
     <row r="58" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="37" t="n">
+      <c r="A58" s="32" t="n">
         <v>48</v>
       </c>
-      <c r="B58" s="48"/>
-      <c r="C58" s="49"/>
-      <c r="D58" s="50"/>
-      <c r="E58" s="51"/>
-      <c r="F58" s="42"/>
-      <c r="G58" s="43"/>
-      <c r="H58" s="44"/>
-      <c r="I58" s="44"/>
-      <c r="J58" s="52" t="n">
+      <c r="B58" s="33"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="35"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="43"/>
+      <c r="G58" s="38"/>
+      <c r="H58" s="39"/>
+      <c r="I58" s="39"/>
+      <c r="J58" s="40" t="n">
         <f aca="false">'Purchase Request '!$H58*'Purchase Request '!$G58+'Purchase Request '!$I58</f>
         <v>0</v>
       </c>
-      <c r="K58" s="46" t="n">
+      <c r="K58" s="41" t="n">
         <f aca="false">'Purchase Request '!$H58*'Purchase Request '!$G58+'Purchase Request '!$I58</f>
         <v>0</v>
       </c>
-      <c r="L58" s="47"/>
+      <c r="L58" s="42"/>
     </row>
     <row r="59" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="37" t="n">
+      <c r="A59" s="32" t="n">
         <v>49</v>
       </c>
-      <c r="B59" s="48"/>
-      <c r="C59" s="49"/>
-      <c r="D59" s="50"/>
-      <c r="E59" s="51"/>
-      <c r="F59" s="42"/>
-      <c r="G59" s="43"/>
-      <c r="H59" s="44"/>
-      <c r="I59" s="44"/>
-      <c r="J59" s="52" t="n">
+      <c r="B59" s="33"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="43"/>
+      <c r="G59" s="38"/>
+      <c r="H59" s="39"/>
+      <c r="I59" s="39"/>
+      <c r="J59" s="40" t="n">
         <f aca="false">'Purchase Request '!$H59*'Purchase Request '!$G59+'Purchase Request '!$I59</f>
         <v>0</v>
       </c>
-      <c r="K59" s="46" t="n">
+      <c r="K59" s="41" t="n">
         <f aca="false">'Purchase Request '!$H59*'Purchase Request '!$G59+'Purchase Request '!$I59</f>
         <v>0</v>
       </c>
-      <c r="L59" s="47"/>
+      <c r="L59" s="42"/>
     </row>
     <row r="60" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="37" t="n">
+      <c r="A60" s="32" t="n">
         <v>50</v>
       </c>
-      <c r="B60" s="48"/>
-      <c r="C60" s="49"/>
-      <c r="D60" s="50"/>
-      <c r="E60" s="51"/>
-      <c r="F60" s="42"/>
-      <c r="G60" s="43"/>
-      <c r="H60" s="44"/>
-      <c r="I60" s="44"/>
-      <c r="J60" s="52" t="n">
+      <c r="B60" s="33"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="35"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="43"/>
+      <c r="G60" s="38"/>
+      <c r="H60" s="39"/>
+      <c r="I60" s="39"/>
+      <c r="J60" s="40" t="n">
         <f aca="false">'Purchase Request '!$H60*'Purchase Request '!$G60+'Purchase Request '!$I60</f>
         <v>0</v>
       </c>
-      <c r="K60" s="46" t="n">
+      <c r="K60" s="41" t="n">
         <f aca="false">'Purchase Request '!$H60*'Purchase Request '!$G60+'Purchase Request '!$I60</f>
         <v>0</v>
       </c>
-      <c r="L60" s="47"/>
+      <c r="L60" s="42"/>
     </row>
     <row r="61" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="37" t="n">
+      <c r="A61" s="32" t="n">
         <v>51</v>
       </c>
-      <c r="B61" s="48"/>
-      <c r="C61" s="49"/>
-      <c r="D61" s="50"/>
-      <c r="E61" s="51"/>
-      <c r="F61" s="42"/>
-      <c r="G61" s="43"/>
-      <c r="H61" s="44"/>
-      <c r="I61" s="44"/>
-      <c r="J61" s="52" t="n">
+      <c r="B61" s="33"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="35"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="43"/>
+      <c r="G61" s="38"/>
+      <c r="H61" s="39"/>
+      <c r="I61" s="39"/>
+      <c r="J61" s="40" t="n">
         <f aca="false">'Purchase Request '!$H61*'Purchase Request '!$G61+'Purchase Request '!$I61</f>
         <v>0</v>
       </c>
-      <c r="K61" s="46" t="n">
+      <c r="K61" s="41" t="n">
         <f aca="false">'Purchase Request '!$H61*'Purchase Request '!$G61+'Purchase Request '!$I61</f>
         <v>0</v>
       </c>
-      <c r="L61" s="47"/>
+      <c r="L61" s="42"/>
     </row>
     <row r="62" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="37" t="n">
+      <c r="A62" s="32" t="n">
         <v>52</v>
       </c>
-      <c r="B62" s="48"/>
-      <c r="C62" s="49"/>
-      <c r="D62" s="50"/>
-      <c r="E62" s="51"/>
-      <c r="F62" s="42"/>
-      <c r="G62" s="43"/>
-      <c r="H62" s="44"/>
-      <c r="I62" s="44"/>
-      <c r="J62" s="52" t="n">
+      <c r="B62" s="33"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="43"/>
+      <c r="G62" s="38"/>
+      <c r="H62" s="39"/>
+      <c r="I62" s="39"/>
+      <c r="J62" s="40" t="n">
         <f aca="false">'Purchase Request '!$H62*'Purchase Request '!$G62+'Purchase Request '!$I62</f>
         <v>0</v>
       </c>
-      <c r="K62" s="46" t="n">
+      <c r="K62" s="41" t="n">
         <f aca="false">'Purchase Request '!$H62*'Purchase Request '!$G62+'Purchase Request '!$I62</f>
         <v>0</v>
       </c>
-      <c r="L62" s="47"/>
+      <c r="L62" s="42"/>
     </row>
     <row r="63" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="37" t="n">
+      <c r="A63" s="32" t="n">
         <v>53</v>
       </c>
-      <c r="B63" s="48"/>
-      <c r="C63" s="49"/>
-      <c r="D63" s="50"/>
-      <c r="E63" s="51"/>
-      <c r="F63" s="42"/>
-      <c r="G63" s="43"/>
-      <c r="H63" s="44"/>
-      <c r="I63" s="44"/>
-      <c r="J63" s="52" t="n">
+      <c r="B63" s="33"/>
+      <c r="C63" s="34"/>
+      <c r="D63" s="35"/>
+      <c r="E63" s="36"/>
+      <c r="F63" s="43"/>
+      <c r="G63" s="38"/>
+      <c r="H63" s="39"/>
+      <c r="I63" s="39"/>
+      <c r="J63" s="40" t="n">
         <f aca="false">'Purchase Request '!$H63*'Purchase Request '!$G63+'Purchase Request '!$I63</f>
         <v>0</v>
       </c>
-      <c r="K63" s="46" t="n">
+      <c r="K63" s="41" t="n">
         <f aca="false">'Purchase Request '!$H63*'Purchase Request '!$G63+'Purchase Request '!$I63</f>
         <v>0</v>
       </c>
-      <c r="L63" s="47"/>
+      <c r="L63" s="42"/>
     </row>
     <row r="64" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="37" t="n">
+      <c r="A64" s="32" t="n">
         <v>54</v>
       </c>
-      <c r="B64" s="48"/>
-      <c r="C64" s="49"/>
-      <c r="D64" s="50"/>
-      <c r="E64" s="51"/>
-      <c r="F64" s="42"/>
-      <c r="G64" s="43"/>
-      <c r="H64" s="44"/>
-      <c r="I64" s="44"/>
-      <c r="J64" s="52" t="n">
+      <c r="B64" s="33"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="35"/>
+      <c r="E64" s="36"/>
+      <c r="F64" s="43"/>
+      <c r="G64" s="38"/>
+      <c r="H64" s="39"/>
+      <c r="I64" s="39"/>
+      <c r="J64" s="40" t="n">
         <f aca="false">'Purchase Request '!$H64*'Purchase Request '!$G64+'Purchase Request '!$I64</f>
         <v>0</v>
       </c>
-      <c r="K64" s="46" t="n">
+      <c r="K64" s="41" t="n">
         <f aca="false">'Purchase Request '!$H64*'Purchase Request '!$G64+'Purchase Request '!$I64</f>
         <v>0</v>
       </c>
-      <c r="L64" s="47"/>
+      <c r="L64" s="42"/>
     </row>
     <row r="65" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="37" t="n">
+      <c r="A65" s="32" t="n">
         <v>55</v>
       </c>
-      <c r="B65" s="48"/>
-      <c r="C65" s="49"/>
-      <c r="D65" s="50"/>
-      <c r="E65" s="51"/>
-      <c r="F65" s="42"/>
-      <c r="G65" s="43"/>
-      <c r="H65" s="44"/>
-      <c r="I65" s="44"/>
-      <c r="J65" s="52" t="n">
+      <c r="B65" s="33"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="36"/>
+      <c r="F65" s="43"/>
+      <c r="G65" s="38"/>
+      <c r="H65" s="39"/>
+      <c r="I65" s="39"/>
+      <c r="J65" s="40" t="n">
         <f aca="false">'Purchase Request '!$H65*'Purchase Request '!$G65+'Purchase Request '!$I65</f>
         <v>0</v>
       </c>
-      <c r="K65" s="46" t="n">
+      <c r="K65" s="41" t="n">
         <f aca="false">'Purchase Request '!$H65*'Purchase Request '!$G65+'Purchase Request '!$I65</f>
         <v>0</v>
       </c>
-      <c r="L65" s="47"/>
+      <c r="L65" s="42"/>
     </row>
     <row r="66" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="37" t="n">
+      <c r="A66" s="32" t="n">
         <v>56</v>
       </c>
-      <c r="B66" s="48"/>
-      <c r="C66" s="49"/>
-      <c r="D66" s="50"/>
-      <c r="E66" s="51"/>
-      <c r="F66" s="42"/>
-      <c r="G66" s="43"/>
-      <c r="H66" s="44"/>
-      <c r="I66" s="44"/>
-      <c r="J66" s="52" t="n">
+      <c r="B66" s="33"/>
+      <c r="C66" s="34"/>
+      <c r="D66" s="35"/>
+      <c r="E66" s="36"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="38"/>
+      <c r="H66" s="39"/>
+      <c r="I66" s="39"/>
+      <c r="J66" s="40" t="n">
         <f aca="false">'Purchase Request '!$H66*'Purchase Request '!$G66+'Purchase Request '!$I66</f>
         <v>0</v>
       </c>
-      <c r="K66" s="46" t="n">
+      <c r="K66" s="41" t="n">
         <f aca="false">'Purchase Request '!$H66*'Purchase Request '!$G66+'Purchase Request '!$I66</f>
         <v>0</v>
       </c>
-      <c r="L66" s="47"/>
+      <c r="L66" s="42"/>
     </row>
     <row r="67" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="37" t="n">
+      <c r="A67" s="32" t="n">
         <v>57</v>
       </c>
-      <c r="B67" s="48"/>
-      <c r="C67" s="49"/>
-      <c r="D67" s="50"/>
-      <c r="E67" s="51"/>
-      <c r="F67" s="42"/>
-      <c r="G67" s="43"/>
-      <c r="H67" s="44"/>
-      <c r="I67" s="44"/>
-      <c r="J67" s="52" t="n">
+      <c r="B67" s="33"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="35"/>
+      <c r="E67" s="36"/>
+      <c r="F67" s="43"/>
+      <c r="G67" s="38"/>
+      <c r="H67" s="39"/>
+      <c r="I67" s="39"/>
+      <c r="J67" s="40" t="n">
         <f aca="false">'Purchase Request '!$H67*'Purchase Request '!$G67+'Purchase Request '!$I67</f>
         <v>0</v>
       </c>
-      <c r="K67" s="46" t="n">
+      <c r="K67" s="41" t="n">
         <f aca="false">'Purchase Request '!$H67*'Purchase Request '!$G67+'Purchase Request '!$I67</f>
         <v>0</v>
       </c>
-      <c r="L67" s="47"/>
+      <c r="L67" s="42"/>
     </row>
     <row r="68" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="37" t="n">
+      <c r="A68" s="32" t="n">
         <v>58</v>
       </c>
-      <c r="B68" s="48"/>
-      <c r="C68" s="49"/>
-      <c r="D68" s="50"/>
-      <c r="E68" s="51"/>
-      <c r="F68" s="42"/>
-      <c r="G68" s="43"/>
-      <c r="H68" s="44"/>
-      <c r="I68" s="44"/>
-      <c r="J68" s="52" t="n">
+      <c r="B68" s="33"/>
+      <c r="C68" s="34"/>
+      <c r="D68" s="35"/>
+      <c r="E68" s="36"/>
+      <c r="F68" s="43"/>
+      <c r="G68" s="38"/>
+      <c r="H68" s="39"/>
+      <c r="I68" s="39"/>
+      <c r="J68" s="40" t="n">
         <f aca="false">'Purchase Request '!$H68*'Purchase Request '!$G68+'Purchase Request '!$I68</f>
         <v>0</v>
       </c>
-      <c r="K68" s="46" t="n">
+      <c r="K68" s="41" t="n">
         <f aca="false">'Purchase Request '!$H68*'Purchase Request '!$G68+'Purchase Request '!$I68</f>
         <v>0</v>
       </c>
-      <c r="L68" s="47"/>
+      <c r="L68" s="42"/>
     </row>
     <row r="69" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="37" t="n">
+      <c r="A69" s="32" t="n">
         <v>59</v>
       </c>
-      <c r="B69" s="48"/>
-      <c r="C69" s="49"/>
-      <c r="D69" s="50"/>
-      <c r="E69" s="51"/>
-      <c r="F69" s="42"/>
-      <c r="G69" s="43"/>
-      <c r="H69" s="44"/>
-      <c r="I69" s="44"/>
-      <c r="J69" s="52" t="n">
+      <c r="B69" s="33"/>
+      <c r="C69" s="34"/>
+      <c r="D69" s="35"/>
+      <c r="E69" s="36"/>
+      <c r="F69" s="43"/>
+      <c r="G69" s="38"/>
+      <c r="H69" s="39"/>
+      <c r="I69" s="39"/>
+      <c r="J69" s="40" t="n">
         <f aca="false">'Purchase Request '!$H69*'Purchase Request '!$G69+'Purchase Request '!$I69</f>
         <v>0</v>
       </c>
-      <c r="K69" s="46" t="n">
+      <c r="K69" s="41" t="n">
         <f aca="false">'Purchase Request '!$H69*'Purchase Request '!$G69+'Purchase Request '!$I69</f>
         <v>0</v>
       </c>
-      <c r="L69" s="47"/>
+      <c r="L69" s="42"/>
     </row>
     <row r="70" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="37" t="n">
+      <c r="A70" s="32" t="n">
         <v>60</v>
       </c>
-      <c r="B70" s="48"/>
-      <c r="C70" s="49"/>
-      <c r="D70" s="50"/>
-      <c r="E70" s="51"/>
-      <c r="F70" s="42"/>
-      <c r="G70" s="43"/>
-      <c r="H70" s="44"/>
-      <c r="I70" s="44"/>
-      <c r="J70" s="52" t="n">
+      <c r="B70" s="33"/>
+      <c r="C70" s="34"/>
+      <c r="D70" s="35"/>
+      <c r="E70" s="36"/>
+      <c r="F70" s="43"/>
+      <c r="G70" s="38"/>
+      <c r="H70" s="39"/>
+      <c r="I70" s="39"/>
+      <c r="J70" s="40" t="n">
         <f aca="false">'Purchase Request '!$H70*'Purchase Request '!$G70+'Purchase Request '!$I70</f>
         <v>0</v>
       </c>
-      <c r="K70" s="46" t="n">
+      <c r="K70" s="41" t="n">
         <f aca="false">'Purchase Request '!$H70*'Purchase Request '!$G70+'Purchase Request '!$I70</f>
         <v>0</v>
       </c>
-      <c r="L70" s="47"/>
+      <c r="L70" s="42"/>
     </row>
     <row r="71" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="37" t="n">
+      <c r="A71" s="32" t="n">
         <v>61</v>
       </c>
-      <c r="B71" s="48"/>
-      <c r="C71" s="49"/>
-      <c r="D71" s="50"/>
-      <c r="E71" s="51"/>
-      <c r="F71" s="42"/>
-      <c r="G71" s="43"/>
-      <c r="H71" s="44"/>
-      <c r="I71" s="44"/>
-      <c r="J71" s="52" t="n">
+      <c r="B71" s="33"/>
+      <c r="C71" s="34"/>
+      <c r="D71" s="35"/>
+      <c r="E71" s="36"/>
+      <c r="F71" s="43"/>
+      <c r="G71" s="38"/>
+      <c r="H71" s="39"/>
+      <c r="I71" s="39"/>
+      <c r="J71" s="40" t="n">
         <f aca="false">'Purchase Request '!$H71*'Purchase Request '!$G71+'Purchase Request '!$I71</f>
         <v>0</v>
       </c>
-      <c r="K71" s="46" t="n">
+      <c r="K71" s="41" t="n">
         <f aca="false">'Purchase Request '!$H71*'Purchase Request '!$G71+'Purchase Request '!$I71</f>
         <v>0</v>
       </c>
-      <c r="L71" s="47"/>
+      <c r="L71" s="42"/>
     </row>
     <row r="72" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="37" t="n">
+      <c r="A72" s="32" t="n">
         <v>62</v>
       </c>
-      <c r="B72" s="48"/>
-      <c r="C72" s="49"/>
-      <c r="D72" s="50"/>
-      <c r="E72" s="51"/>
-      <c r="F72" s="42"/>
-      <c r="G72" s="43"/>
-      <c r="H72" s="44"/>
-      <c r="I72" s="44"/>
-      <c r="J72" s="52" t="n">
+      <c r="B72" s="33"/>
+      <c r="C72" s="34"/>
+      <c r="D72" s="35"/>
+      <c r="E72" s="36"/>
+      <c r="F72" s="43"/>
+      <c r="G72" s="38"/>
+      <c r="H72" s="39"/>
+      <c r="I72" s="39"/>
+      <c r="J72" s="40" t="n">
         <f aca="false">'Purchase Request '!$H72*'Purchase Request '!$G72+'Purchase Request '!$I72</f>
         <v>0</v>
       </c>
-      <c r="K72" s="46" t="n">
+      <c r="K72" s="41" t="n">
         <f aca="false">'Purchase Request '!$H72*'Purchase Request '!$G72+'Purchase Request '!$I72</f>
         <v>0</v>
       </c>
-      <c r="L72" s="47"/>
+      <c r="L72" s="42"/>
     </row>
     <row r="73" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="37" t="n">
+      <c r="A73" s="32" t="n">
         <v>63</v>
       </c>
-      <c r="B73" s="48"/>
-      <c r="C73" s="49"/>
-      <c r="D73" s="50"/>
-      <c r="E73" s="51"/>
-      <c r="F73" s="42"/>
-      <c r="G73" s="43"/>
-      <c r="H73" s="44"/>
-      <c r="I73" s="44"/>
-      <c r="J73" s="52" t="n">
+      <c r="B73" s="33"/>
+      <c r="C73" s="34"/>
+      <c r="D73" s="35"/>
+      <c r="E73" s="36"/>
+      <c r="F73" s="43"/>
+      <c r="G73" s="38"/>
+      <c r="H73" s="39"/>
+      <c r="I73" s="39"/>
+      <c r="J73" s="40" t="n">
         <f aca="false">'Purchase Request '!$H73*'Purchase Request '!$G73+'Purchase Request '!$I73</f>
         <v>0</v>
       </c>
-      <c r="K73" s="46" t="n">
+      <c r="K73" s="41" t="n">
         <f aca="false">'Purchase Request '!$H73*'Purchase Request '!$G73+'Purchase Request '!$I73</f>
         <v>0</v>
       </c>
-      <c r="L73" s="47"/>
+      <c r="L73" s="42"/>
     </row>
     <row r="74" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="37" t="n">
+      <c r="A74" s="32" t="n">
         <v>64</v>
       </c>
-      <c r="B74" s="48"/>
-      <c r="C74" s="49"/>
-      <c r="D74" s="50"/>
-      <c r="E74" s="51"/>
-      <c r="F74" s="42"/>
-      <c r="G74" s="43"/>
-      <c r="H74" s="44"/>
-      <c r="I74" s="44"/>
-      <c r="J74" s="52" t="n">
+      <c r="B74" s="33"/>
+      <c r="C74" s="34"/>
+      <c r="D74" s="35"/>
+      <c r="E74" s="36"/>
+      <c r="F74" s="43"/>
+      <c r="G74" s="38"/>
+      <c r="H74" s="39"/>
+      <c r="I74" s="39"/>
+      <c r="J74" s="40" t="n">
         <f aca="false">'Purchase Request '!$H74*'Purchase Request '!$G74+'Purchase Request '!$I74</f>
         <v>0</v>
       </c>
-      <c r="K74" s="46" t="n">
+      <c r="K74" s="41" t="n">
         <f aca="false">'Purchase Request '!$H74*'Purchase Request '!$G74+'Purchase Request '!$I74</f>
         <v>0</v>
       </c>
-      <c r="L74" s="47"/>
+      <c r="L74" s="42"/>
     </row>
     <row r="75" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="37" t="n">
+      <c r="A75" s="32" t="n">
         <v>65</v>
       </c>
-      <c r="B75" s="48"/>
-      <c r="C75" s="49"/>
-      <c r="D75" s="50"/>
-      <c r="E75" s="51"/>
-      <c r="F75" s="42"/>
-      <c r="G75" s="43"/>
-      <c r="H75" s="44"/>
-      <c r="I75" s="44"/>
-      <c r="J75" s="52" t="n">
+      <c r="B75" s="33"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="35"/>
+      <c r="E75" s="36"/>
+      <c r="F75" s="43"/>
+      <c r="G75" s="38"/>
+      <c r="H75" s="39"/>
+      <c r="I75" s="39"/>
+      <c r="J75" s="40" t="n">
         <f aca="false">'Purchase Request '!$H75*'Purchase Request '!$G75+'Purchase Request '!$I75</f>
         <v>0</v>
       </c>
-      <c r="K75" s="46" t="n">
+      <c r="K75" s="41" t="n">
         <f aca="false">'Purchase Request '!$H75*'Purchase Request '!$G75+'Purchase Request '!$I75</f>
         <v>0</v>
       </c>
-      <c r="L75" s="47"/>
+      <c r="L75" s="42"/>
     </row>
     <row r="76" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="37" t="n">
+      <c r="A76" s="32" t="n">
         <v>66</v>
       </c>
-      <c r="B76" s="48"/>
-      <c r="C76" s="49"/>
-      <c r="D76" s="50"/>
-      <c r="E76" s="51"/>
-      <c r="F76" s="42"/>
-      <c r="G76" s="43"/>
-      <c r="H76" s="44"/>
-      <c r="I76" s="44"/>
-      <c r="J76" s="52" t="n">
+      <c r="B76" s="33"/>
+      <c r="C76" s="34"/>
+      <c r="D76" s="35"/>
+      <c r="E76" s="36"/>
+      <c r="F76" s="43"/>
+      <c r="G76" s="38"/>
+      <c r="H76" s="39"/>
+      <c r="I76" s="39"/>
+      <c r="J76" s="40" t="n">
         <f aca="false">'Purchase Request '!$H76*'Purchase Request '!$G76+'Purchase Request '!$I76</f>
         <v>0</v>
       </c>
-      <c r="K76" s="46" t="n">
+      <c r="K76" s="41" t="n">
         <f aca="false">'Purchase Request '!$H76*'Purchase Request '!$G76+'Purchase Request '!$I76</f>
         <v>0</v>
       </c>
-      <c r="L76" s="47"/>
+      <c r="L76" s="42"/>
     </row>
     <row r="77" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="37" t="n">
+      <c r="A77" s="32" t="n">
         <v>67</v>
       </c>
-      <c r="B77" s="48"/>
-      <c r="C77" s="49"/>
-      <c r="D77" s="50"/>
-      <c r="E77" s="51"/>
-      <c r="F77" s="42"/>
-      <c r="G77" s="43"/>
-      <c r="H77" s="44"/>
-      <c r="I77" s="44"/>
-      <c r="J77" s="52" t="n">
+      <c r="B77" s="33"/>
+      <c r="C77" s="34"/>
+      <c r="D77" s="35"/>
+      <c r="E77" s="36"/>
+      <c r="F77" s="43"/>
+      <c r="G77" s="38"/>
+      <c r="H77" s="39"/>
+      <c r="I77" s="39"/>
+      <c r="J77" s="40" t="n">
         <f aca="false">'Purchase Request '!$H77*'Purchase Request '!$G77+'Purchase Request '!$I77</f>
         <v>0</v>
       </c>
-      <c r="K77" s="46" t="n">
+      <c r="K77" s="41" t="n">
         <f aca="false">'Purchase Request '!$H77*'Purchase Request '!$G77+'Purchase Request '!$I77</f>
         <v>0</v>
       </c>
-      <c r="L77" s="47"/>
+      <c r="L77" s="42"/>
     </row>
     <row r="78" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="37" t="n">
+      <c r="A78" s="32" t="n">
         <v>68</v>
       </c>
-      <c r="B78" s="48"/>
-      <c r="C78" s="49"/>
-      <c r="D78" s="50"/>
-      <c r="E78" s="51"/>
-      <c r="F78" s="42"/>
-      <c r="G78" s="43"/>
-      <c r="H78" s="44"/>
-      <c r="I78" s="44"/>
-      <c r="J78" s="52" t="n">
+      <c r="B78" s="33"/>
+      <c r="C78" s="34"/>
+      <c r="D78" s="35"/>
+      <c r="E78" s="36"/>
+      <c r="F78" s="43"/>
+      <c r="G78" s="38"/>
+      <c r="H78" s="39"/>
+      <c r="I78" s="39"/>
+      <c r="J78" s="40" t="n">
         <f aca="false">'Purchase Request '!$H78*'Purchase Request '!$G78+'Purchase Request '!$I78</f>
         <v>0</v>
       </c>
-      <c r="K78" s="46" t="n">
+      <c r="K78" s="41" t="n">
         <f aca="false">'Purchase Request '!$H78*'Purchase Request '!$G78+'Purchase Request '!$I78</f>
         <v>0</v>
       </c>
-      <c r="L78" s="47"/>
+      <c r="L78" s="42"/>
     </row>
     <row r="79" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="37" t="n">
+      <c r="A79" s="32" t="n">
         <v>69</v>
       </c>
-      <c r="B79" s="48"/>
-      <c r="C79" s="49"/>
-      <c r="D79" s="50"/>
-      <c r="E79" s="51"/>
-      <c r="F79" s="42"/>
-      <c r="G79" s="43"/>
-      <c r="H79" s="44"/>
-      <c r="I79" s="44"/>
-      <c r="J79" s="52" t="n">
+      <c r="B79" s="33"/>
+      <c r="C79" s="34"/>
+      <c r="D79" s="35"/>
+      <c r="E79" s="36"/>
+      <c r="F79" s="43"/>
+      <c r="G79" s="38"/>
+      <c r="H79" s="39"/>
+      <c r="I79" s="39"/>
+      <c r="J79" s="40" t="n">
         <f aca="false">'Purchase Request '!$H79*'Purchase Request '!$G79+'Purchase Request '!$I79</f>
         <v>0</v>
       </c>
-      <c r="K79" s="46" t="n">
+      <c r="K79" s="41" t="n">
         <f aca="false">'Purchase Request '!$H79*'Purchase Request '!$G79+'Purchase Request '!$I79</f>
         <v>0</v>
       </c>
-      <c r="L79" s="47"/>
+      <c r="L79" s="42"/>
     </row>
     <row r="80" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="37" t="n">
+      <c r="A80" s="32" t="n">
         <v>70</v>
       </c>
-      <c r="B80" s="48"/>
-      <c r="C80" s="49"/>
-      <c r="D80" s="50"/>
-      <c r="E80" s="51"/>
-      <c r="F80" s="42"/>
-      <c r="G80" s="43"/>
-      <c r="H80" s="44"/>
-      <c r="I80" s="44"/>
-      <c r="J80" s="52" t="n">
+      <c r="B80" s="33"/>
+      <c r="C80" s="34"/>
+      <c r="D80" s="35"/>
+      <c r="E80" s="36"/>
+      <c r="F80" s="43"/>
+      <c r="G80" s="38"/>
+      <c r="H80" s="39"/>
+      <c r="I80" s="39"/>
+      <c r="J80" s="40" t="n">
         <f aca="false">'Purchase Request '!$H80*'Purchase Request '!$G80+'Purchase Request '!$I80</f>
         <v>0</v>
       </c>
-      <c r="K80" s="46" t="n">
+      <c r="K80" s="41" t="n">
         <f aca="false">'Purchase Request '!$H80*'Purchase Request '!$G80+'Purchase Request '!$I80</f>
         <v>0</v>
       </c>
-      <c r="L80" s="47"/>
+      <c r="L80" s="42"/>
     </row>
     <row r="81" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="37" t="n">
+      <c r="A81" s="32" t="n">
         <v>71</v>
       </c>
-      <c r="B81" s="48"/>
-      <c r="C81" s="49"/>
-      <c r="D81" s="50"/>
-      <c r="E81" s="51"/>
-      <c r="F81" s="42"/>
-      <c r="G81" s="43"/>
-      <c r="H81" s="44"/>
-      <c r="I81" s="44"/>
-      <c r="J81" s="52" t="n">
+      <c r="B81" s="33"/>
+      <c r="C81" s="34"/>
+      <c r="D81" s="35"/>
+      <c r="E81" s="36"/>
+      <c r="F81" s="43"/>
+      <c r="G81" s="38"/>
+      <c r="H81" s="39"/>
+      <c r="I81" s="39"/>
+      <c r="J81" s="40" t="n">
         <f aca="false">'Purchase Request '!$H81*'Purchase Request '!$G81+'Purchase Request '!$I81</f>
         <v>0</v>
       </c>
-      <c r="K81" s="46" t="n">
+      <c r="K81" s="41" t="n">
         <f aca="false">'Purchase Request '!$H81*'Purchase Request '!$G81+'Purchase Request '!$I81</f>
         <v>0</v>
       </c>
-      <c r="L81" s="47"/>
+      <c r="L81" s="42"/>
     </row>
     <row r="82" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="37" t="n">
+      <c r="A82" s="32" t="n">
         <v>72</v>
       </c>
-      <c r="B82" s="48"/>
-      <c r="C82" s="49"/>
-      <c r="D82" s="50"/>
-      <c r="E82" s="51"/>
-      <c r="F82" s="42"/>
-      <c r="G82" s="43"/>
-      <c r="H82" s="44"/>
-      <c r="I82" s="44"/>
-      <c r="J82" s="52" t="n">
+      <c r="B82" s="33"/>
+      <c r="C82" s="34"/>
+      <c r="D82" s="35"/>
+      <c r="E82" s="36"/>
+      <c r="F82" s="43"/>
+      <c r="G82" s="38"/>
+      <c r="H82" s="39"/>
+      <c r="I82" s="39"/>
+      <c r="J82" s="40" t="n">
         <f aca="false">'Purchase Request '!$H82*'Purchase Request '!$G82+'Purchase Request '!$I82</f>
         <v>0</v>
       </c>
-      <c r="K82" s="46" t="n">
+      <c r="K82" s="41" t="n">
         <f aca="false">'Purchase Request '!$H82*'Purchase Request '!$G82+'Purchase Request '!$I82</f>
         <v>0</v>
       </c>
-      <c r="L82" s="47"/>
+      <c r="L82" s="42"/>
     </row>
     <row r="83" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="37" t="n">
+      <c r="A83" s="32" t="n">
         <v>73</v>
       </c>
-      <c r="B83" s="48"/>
-      <c r="C83" s="49"/>
-      <c r="D83" s="50"/>
-      <c r="E83" s="51"/>
-      <c r="F83" s="42"/>
-      <c r="G83" s="43"/>
-      <c r="H83" s="44"/>
-      <c r="I83" s="44"/>
-      <c r="J83" s="52" t="n">
+      <c r="B83" s="33"/>
+      <c r="C83" s="34"/>
+      <c r="D83" s="35"/>
+      <c r="E83" s="36"/>
+      <c r="F83" s="43"/>
+      <c r="G83" s="38"/>
+      <c r="H83" s="39"/>
+      <c r="I83" s="39"/>
+      <c r="J83" s="40" t="n">
         <f aca="false">'Purchase Request '!$H83*'Purchase Request '!$G83+'Purchase Request '!$I83</f>
         <v>0</v>
       </c>
-      <c r="K83" s="46" t="n">
+      <c r="K83" s="41" t="n">
         <f aca="false">'Purchase Request '!$H83*'Purchase Request '!$G83+'Purchase Request '!$I83</f>
         <v>0</v>
       </c>
-      <c r="L83" s="47"/>
+      <c r="L83" s="42"/>
     </row>
     <row r="84" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="37" t="n">
+      <c r="A84" s="32" t="n">
         <v>74</v>
       </c>
-      <c r="B84" s="48"/>
-      <c r="C84" s="49"/>
-      <c r="D84" s="50"/>
-      <c r="E84" s="51"/>
-      <c r="F84" s="42"/>
-      <c r="G84" s="43"/>
-      <c r="H84" s="44"/>
-      <c r="I84" s="44"/>
-      <c r="J84" s="52" t="n">
+      <c r="B84" s="33"/>
+      <c r="C84" s="34"/>
+      <c r="D84" s="35"/>
+      <c r="E84" s="36"/>
+      <c r="F84" s="43"/>
+      <c r="G84" s="38"/>
+      <c r="H84" s="39"/>
+      <c r="I84" s="39"/>
+      <c r="J84" s="40" t="n">
         <f aca="false">'Purchase Request '!$H84*'Purchase Request '!$G84+'Purchase Request '!$I84</f>
         <v>0</v>
       </c>
-      <c r="K84" s="46" t="n">
+      <c r="K84" s="41" t="n">
         <f aca="false">'Purchase Request '!$H84*'Purchase Request '!$G84+'Purchase Request '!$I84</f>
         <v>0</v>
       </c>
-      <c r="L84" s="47"/>
+      <c r="L84" s="42"/>
     </row>
     <row r="85" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="37" t="n">
+      <c r="A85" s="32" t="n">
         <v>75</v>
       </c>
-      <c r="B85" s="48"/>
-      <c r="C85" s="49"/>
-      <c r="D85" s="50"/>
-      <c r="E85" s="51"/>
-      <c r="F85" s="42"/>
-      <c r="G85" s="43"/>
-      <c r="H85" s="44"/>
-      <c r="I85" s="44"/>
-      <c r="J85" s="52" t="n">
+      <c r="B85" s="33"/>
+      <c r="C85" s="34"/>
+      <c r="D85" s="35"/>
+      <c r="E85" s="36"/>
+      <c r="F85" s="43"/>
+      <c r="G85" s="38"/>
+      <c r="H85" s="39"/>
+      <c r="I85" s="39"/>
+      <c r="J85" s="40" t="n">
         <f aca="false">'Purchase Request '!$H85*'Purchase Request '!$G85+'Purchase Request '!$I85</f>
         <v>0</v>
       </c>
-      <c r="K85" s="46" t="n">
+      <c r="K85" s="41" t="n">
         <f aca="false">'Purchase Request '!$H85*'Purchase Request '!$G85+'Purchase Request '!$I85</f>
         <v>0</v>
       </c>
-      <c r="L85" s="47"/>
+      <c r="L85" s="42"/>
     </row>
     <row r="86" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="37" t="n">
+      <c r="A86" s="32" t="n">
         <v>76</v>
       </c>
-      <c r="B86" s="48"/>
-      <c r="C86" s="49"/>
-      <c r="D86" s="50"/>
-      <c r="E86" s="51"/>
-      <c r="F86" s="42"/>
-      <c r="G86" s="43"/>
-      <c r="H86" s="44"/>
-      <c r="I86" s="44"/>
-      <c r="J86" s="52" t="n">
+      <c r="B86" s="33"/>
+      <c r="C86" s="34"/>
+      <c r="D86" s="35"/>
+      <c r="E86" s="36"/>
+      <c r="F86" s="43"/>
+      <c r="G86" s="38"/>
+      <c r="H86" s="39"/>
+      <c r="I86" s="39"/>
+      <c r="J86" s="40" t="n">
         <f aca="false">'Purchase Request '!$H86*'Purchase Request '!$G86+'Purchase Request '!$I86</f>
         <v>0</v>
       </c>
-      <c r="K86" s="46" t="n">
+      <c r="K86" s="41" t="n">
         <f aca="false">'Purchase Request '!$H86*'Purchase Request '!$G86+'Purchase Request '!$I86</f>
         <v>0</v>
       </c>
-      <c r="L86" s="47"/>
+      <c r="L86" s="42"/>
     </row>
     <row r="87" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="37" t="n">
+      <c r="A87" s="32" t="n">
         <v>77</v>
       </c>
-      <c r="B87" s="48"/>
-      <c r="C87" s="49"/>
-      <c r="D87" s="50"/>
-      <c r="E87" s="51"/>
-      <c r="F87" s="42"/>
-      <c r="G87" s="43"/>
-      <c r="H87" s="44"/>
-      <c r="I87" s="44"/>
-      <c r="J87" s="52" t="n">
+      <c r="B87" s="33"/>
+      <c r="C87" s="34"/>
+      <c r="D87" s="35"/>
+      <c r="E87" s="36"/>
+      <c r="F87" s="43"/>
+      <c r="G87" s="38"/>
+      <c r="H87" s="39"/>
+      <c r="I87" s="39"/>
+      <c r="J87" s="40" t="n">
         <f aca="false">'Purchase Request '!$H87*'Purchase Request '!$G87+'Purchase Request '!$I87</f>
         <v>0</v>
       </c>
-      <c r="K87" s="46" t="n">
+      <c r="K87" s="41" t="n">
         <f aca="false">'Purchase Request '!$H87*'Purchase Request '!$G87+'Purchase Request '!$I87</f>
         <v>0</v>
       </c>
-      <c r="L87" s="47"/>
+      <c r="L87" s="42"/>
     </row>
     <row r="88" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="37" t="n">
+      <c r="A88" s="32" t="n">
         <v>78</v>
       </c>
-      <c r="B88" s="48"/>
-      <c r="C88" s="49"/>
-      <c r="D88" s="50"/>
-      <c r="E88" s="51"/>
-      <c r="F88" s="42"/>
-      <c r="G88" s="43"/>
-      <c r="H88" s="44"/>
-      <c r="I88" s="44"/>
-      <c r="J88" s="52" t="n">
+      <c r="B88" s="33"/>
+      <c r="C88" s="34"/>
+      <c r="D88" s="35"/>
+      <c r="E88" s="36"/>
+      <c r="F88" s="43"/>
+      <c r="G88" s="38"/>
+      <c r="H88" s="39"/>
+      <c r="I88" s="39"/>
+      <c r="J88" s="40" t="n">
         <f aca="false">'Purchase Request '!$H88*'Purchase Request '!$G88+'Purchase Request '!$I88</f>
         <v>0</v>
       </c>
-      <c r="K88" s="46" t="n">
+      <c r="K88" s="41" t="n">
         <f aca="false">'Purchase Request '!$H88*'Purchase Request '!$G88+'Purchase Request '!$I88</f>
         <v>0</v>
       </c>
-      <c r="L88" s="47"/>
+      <c r="L88" s="42"/>
     </row>
     <row r="89" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="37" t="n">
+      <c r="A89" s="32" t="n">
         <v>79</v>
       </c>
-      <c r="B89" s="48"/>
-      <c r="C89" s="49"/>
-      <c r="D89" s="50"/>
-      <c r="E89" s="51"/>
-      <c r="F89" s="42"/>
-      <c r="G89" s="43"/>
-      <c r="H89" s="44"/>
-      <c r="I89" s="44"/>
-      <c r="J89" s="52" t="n">
+      <c r="B89" s="33"/>
+      <c r="C89" s="34"/>
+      <c r="D89" s="35"/>
+      <c r="E89" s="36"/>
+      <c r="F89" s="43"/>
+      <c r="G89" s="38"/>
+      <c r="H89" s="39"/>
+      <c r="I89" s="39"/>
+      <c r="J89" s="40" t="n">
         <f aca="false">'Purchase Request '!$H89*'Purchase Request '!$G89+'Purchase Request '!$I89</f>
         <v>0</v>
       </c>
-      <c r="K89" s="46" t="n">
+      <c r="K89" s="41" t="n">
         <f aca="false">'Purchase Request '!$H89*'Purchase Request '!$G89+'Purchase Request '!$I89</f>
         <v>0</v>
       </c>
-      <c r="L89" s="47"/>
+      <c r="L89" s="42"/>
     </row>
     <row r="90" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="37" t="n">
+      <c r="A90" s="32" t="n">
         <v>80</v>
       </c>
-      <c r="B90" s="48"/>
-      <c r="C90" s="49"/>
-      <c r="D90" s="50"/>
-      <c r="E90" s="51"/>
-      <c r="F90" s="42"/>
-      <c r="G90" s="43"/>
-      <c r="H90" s="44"/>
-      <c r="I90" s="44"/>
-      <c r="J90" s="52" t="n">
+      <c r="B90" s="33"/>
+      <c r="C90" s="34"/>
+      <c r="D90" s="35"/>
+      <c r="E90" s="36"/>
+      <c r="F90" s="43"/>
+      <c r="G90" s="38"/>
+      <c r="H90" s="39"/>
+      <c r="I90" s="39"/>
+      <c r="J90" s="40" t="n">
         <f aca="false">'Purchase Request '!$H90*'Purchase Request '!$G90+'Purchase Request '!$I90</f>
         <v>0</v>
       </c>
-      <c r="K90" s="46" t="n">
+      <c r="K90" s="41" t="n">
         <f aca="false">'Purchase Request '!$H90*'Purchase Request '!$G90+'Purchase Request '!$I90</f>
         <v>0</v>
       </c>
-      <c r="L90" s="47"/>
+      <c r="L90" s="42"/>
     </row>
     <row r="91" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="37" t="n">
+      <c r="A91" s="32" t="n">
         <v>81</v>
       </c>
-      <c r="B91" s="48"/>
-      <c r="C91" s="49"/>
-      <c r="D91" s="50"/>
-      <c r="E91" s="51"/>
-      <c r="F91" s="42"/>
-      <c r="G91" s="43"/>
-      <c r="H91" s="44"/>
-      <c r="I91" s="44"/>
-      <c r="J91" s="52" t="n">
+      <c r="B91" s="33"/>
+      <c r="C91" s="34"/>
+      <c r="D91" s="35"/>
+      <c r="E91" s="36"/>
+      <c r="F91" s="43"/>
+      <c r="G91" s="38"/>
+      <c r="H91" s="39"/>
+      <c r="I91" s="39"/>
+      <c r="J91" s="40" t="n">
         <f aca="false">'Purchase Request '!$H91*'Purchase Request '!$G91+'Purchase Request '!$I91</f>
         <v>0</v>
       </c>
-      <c r="K91" s="46" t="n">
+      <c r="K91" s="41" t="n">
         <f aca="false">'Purchase Request '!$H91*'Purchase Request '!$G91+'Purchase Request '!$I91</f>
         <v>0</v>
       </c>
-      <c r="L91" s="47"/>
+      <c r="L91" s="42"/>
     </row>
     <row r="92" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="37" t="n">
+      <c r="A92" s="32" t="n">
         <v>82</v>
       </c>
-      <c r="B92" s="48"/>
-      <c r="C92" s="49"/>
-      <c r="D92" s="50"/>
-      <c r="E92" s="51"/>
-      <c r="F92" s="42"/>
-      <c r="G92" s="43"/>
-      <c r="H92" s="44"/>
-      <c r="I92" s="44"/>
-      <c r="J92" s="52" t="n">
+      <c r="B92" s="33"/>
+      <c r="C92" s="34"/>
+      <c r="D92" s="35"/>
+      <c r="E92" s="36"/>
+      <c r="F92" s="43"/>
+      <c r="G92" s="38"/>
+      <c r="H92" s="39"/>
+      <c r="I92" s="39"/>
+      <c r="J92" s="40" t="n">
         <f aca="false">'Purchase Request '!$H92*'Purchase Request '!$G92+'Purchase Request '!$I92</f>
         <v>0</v>
       </c>
-      <c r="K92" s="46" t="n">
+      <c r="K92" s="41" t="n">
         <f aca="false">'Purchase Request '!$H92*'Purchase Request '!$G92+'Purchase Request '!$I92</f>
         <v>0</v>
       </c>
-      <c r="L92" s="47"/>
+      <c r="L92" s="42"/>
     </row>
     <row r="93" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="37" t="n">
+      <c r="A93" s="32" t="n">
         <v>83</v>
       </c>
-      <c r="B93" s="48"/>
-      <c r="C93" s="49"/>
-      <c r="D93" s="50"/>
-      <c r="E93" s="51"/>
-      <c r="F93" s="42"/>
-      <c r="G93" s="43"/>
-      <c r="H93" s="44"/>
-      <c r="I93" s="44"/>
-      <c r="J93" s="52" t="n">
+      <c r="B93" s="33"/>
+      <c r="C93" s="34"/>
+      <c r="D93" s="35"/>
+      <c r="E93" s="36"/>
+      <c r="F93" s="43"/>
+      <c r="G93" s="38"/>
+      <c r="H93" s="39"/>
+      <c r="I93" s="39"/>
+      <c r="J93" s="40" t="n">
         <f aca="false">'Purchase Request '!$H93*'Purchase Request '!$G93+'Purchase Request '!$I93</f>
         <v>0</v>
       </c>
-      <c r="K93" s="46" t="n">
+      <c r="K93" s="41" t="n">
         <f aca="false">'Purchase Request '!$H93*'Purchase Request '!$G93+'Purchase Request '!$I93</f>
         <v>0</v>
       </c>
-      <c r="L93" s="47"/>
+      <c r="L93" s="42"/>
     </row>
     <row r="94" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="37" t="n">
+      <c r="A94" s="32" t="n">
         <v>84</v>
       </c>
-      <c r="B94" s="48"/>
-      <c r="C94" s="49"/>
-      <c r="D94" s="50"/>
-      <c r="E94" s="51"/>
-      <c r="F94" s="42"/>
-      <c r="G94" s="43"/>
-      <c r="H94" s="44"/>
-      <c r="I94" s="44"/>
-      <c r="J94" s="52" t="n">
+      <c r="B94" s="33"/>
+      <c r="C94" s="34"/>
+      <c r="D94" s="35"/>
+      <c r="E94" s="36"/>
+      <c r="F94" s="43"/>
+      <c r="G94" s="38"/>
+      <c r="H94" s="39"/>
+      <c r="I94" s="39"/>
+      <c r="J94" s="40" t="n">
         <f aca="false">'Purchase Request '!$H94*'Purchase Request '!$G94+'Purchase Request '!$I94</f>
         <v>0</v>
       </c>
-      <c r="K94" s="46" t="n">
+      <c r="K94" s="41" t="n">
         <f aca="false">'Purchase Request '!$H94*'Purchase Request '!$G94+'Purchase Request '!$I94</f>
         <v>0</v>
       </c>
-      <c r="L94" s="47"/>
+      <c r="L94" s="42"/>
     </row>
     <row r="95" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="37" t="n">
+      <c r="A95" s="32" t="n">
         <v>85</v>
       </c>
-      <c r="B95" s="48"/>
-      <c r="C95" s="49"/>
-      <c r="D95" s="50"/>
-      <c r="E95" s="51"/>
-      <c r="F95" s="42"/>
-      <c r="G95" s="43"/>
-      <c r="H95" s="44"/>
-      <c r="I95" s="44"/>
-      <c r="J95" s="52" t="n">
+      <c r="B95" s="33"/>
+      <c r="C95" s="34"/>
+      <c r="D95" s="35"/>
+      <c r="E95" s="36"/>
+      <c r="F95" s="43"/>
+      <c r="G95" s="38"/>
+      <c r="H95" s="39"/>
+      <c r="I95" s="39"/>
+      <c r="J95" s="40" t="n">
         <f aca="false">'Purchase Request '!$H95*'Purchase Request '!$G95+'Purchase Request '!$I95</f>
         <v>0</v>
       </c>
-      <c r="K95" s="46" t="n">
+      <c r="K95" s="41" t="n">
         <f aca="false">'Purchase Request '!$H95*'Purchase Request '!$G95+'Purchase Request '!$I95</f>
         <v>0</v>
       </c>
-      <c r="L95" s="47"/>
+      <c r="L95" s="42"/>
     </row>
     <row r="96" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="37" t="n">
+      <c r="A96" s="32" t="n">
         <v>86</v>
       </c>
-      <c r="B96" s="48"/>
-      <c r="C96" s="49"/>
-      <c r="D96" s="50"/>
-      <c r="E96" s="51"/>
-      <c r="F96" s="42"/>
-      <c r="G96" s="43"/>
-      <c r="H96" s="44"/>
-      <c r="I96" s="44"/>
-      <c r="J96" s="52" t="n">
+      <c r="B96" s="33"/>
+      <c r="C96" s="34"/>
+      <c r="D96" s="35"/>
+      <c r="E96" s="36"/>
+      <c r="F96" s="43"/>
+      <c r="G96" s="38"/>
+      <c r="H96" s="39"/>
+      <c r="I96" s="39"/>
+      <c r="J96" s="40" t="n">
         <f aca="false">'Purchase Request '!$H96*'Purchase Request '!$G96+'Purchase Request '!$I96</f>
         <v>0</v>
       </c>
-      <c r="K96" s="46" t="n">
+      <c r="K96" s="41" t="n">
         <f aca="false">'Purchase Request '!$H96*'Purchase Request '!$G96+'Purchase Request '!$I96</f>
         <v>0</v>
       </c>
-      <c r="L96" s="47"/>
+      <c r="L96" s="42"/>
     </row>
     <row r="97" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="37" t="n">
+      <c r="A97" s="32" t="n">
         <v>87</v>
       </c>
-      <c r="B97" s="48"/>
-      <c r="C97" s="49"/>
-      <c r="D97" s="50"/>
-      <c r="E97" s="51"/>
-      <c r="F97" s="42"/>
-      <c r="G97" s="43"/>
-      <c r="H97" s="44"/>
-      <c r="I97" s="44"/>
-      <c r="J97" s="52" t="n">
+      <c r="B97" s="33"/>
+      <c r="C97" s="34"/>
+      <c r="D97" s="35"/>
+      <c r="E97" s="36"/>
+      <c r="F97" s="43"/>
+      <c r="G97" s="38"/>
+      <c r="H97" s="39"/>
+      <c r="I97" s="39"/>
+      <c r="J97" s="40" t="n">
         <f aca="false">'Purchase Request '!$H97*'Purchase Request '!$G97+'Purchase Request '!$I97</f>
         <v>0</v>
       </c>
-      <c r="K97" s="46" t="n">
+      <c r="K97" s="41" t="n">
         <f aca="false">'Purchase Request '!$H97*'Purchase Request '!$G97+'Purchase Request '!$I97</f>
         <v>0</v>
       </c>
-      <c r="L97" s="47"/>
+      <c r="L97" s="42"/>
     </row>
     <row r="98" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="37" t="n">
+      <c r="A98" s="32" t="n">
         <v>88</v>
       </c>
-      <c r="B98" s="48"/>
-      <c r="C98" s="49"/>
-      <c r="D98" s="50"/>
-      <c r="E98" s="51"/>
-      <c r="F98" s="42"/>
-      <c r="G98" s="43"/>
-      <c r="H98" s="44"/>
-      <c r="I98" s="44"/>
-      <c r="J98" s="52" t="n">
+      <c r="B98" s="33"/>
+      <c r="C98" s="34"/>
+      <c r="D98" s="35"/>
+      <c r="E98" s="36"/>
+      <c r="F98" s="43"/>
+      <c r="G98" s="38"/>
+      <c r="H98" s="39"/>
+      <c r="I98" s="39"/>
+      <c r="J98" s="40" t="n">
         <f aca="false">'Purchase Request '!$H98*'Purchase Request '!$G98+'Purchase Request '!$I98</f>
         <v>0</v>
       </c>
-      <c r="K98" s="46" t="n">
+      <c r="K98" s="41" t="n">
         <f aca="false">'Purchase Request '!$H98*'Purchase Request '!$G98+'Purchase Request '!$I98</f>
         <v>0</v>
       </c>
-      <c r="L98" s="47"/>
+      <c r="L98" s="42"/>
     </row>
     <row r="99" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="37" t="n">
+      <c r="A99" s="32" t="n">
         <v>89</v>
       </c>
-      <c r="B99" s="48"/>
-      <c r="C99" s="49"/>
-      <c r="D99" s="50"/>
-      <c r="E99" s="51"/>
-      <c r="F99" s="42"/>
-      <c r="G99" s="43"/>
-      <c r="H99" s="44"/>
-      <c r="I99" s="44"/>
-      <c r="J99" s="52" t="n">
+      <c r="B99" s="33"/>
+      <c r="C99" s="34"/>
+      <c r="D99" s="35"/>
+      <c r="E99" s="36"/>
+      <c r="F99" s="43"/>
+      <c r="G99" s="38"/>
+      <c r="H99" s="39"/>
+      <c r="I99" s="39"/>
+      <c r="J99" s="40" t="n">
         <f aca="false">'Purchase Request '!$H99*'Purchase Request '!$G99+'Purchase Request '!$I99</f>
         <v>0</v>
       </c>
-      <c r="K99" s="46" t="n">
+      <c r="K99" s="41" t="n">
         <f aca="false">'Purchase Request '!$H99*'Purchase Request '!$G99+'Purchase Request '!$I99</f>
         <v>0</v>
       </c>
-      <c r="L99" s="47"/>
+      <c r="L99" s="42"/>
     </row>
     <row r="100" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="37" t="n">
+      <c r="A100" s="32" t="n">
         <v>90</v>
       </c>
-      <c r="B100" s="48"/>
-      <c r="C100" s="49"/>
-      <c r="D100" s="50"/>
-      <c r="E100" s="51"/>
-      <c r="F100" s="42"/>
-      <c r="G100" s="43"/>
-      <c r="H100" s="44"/>
-      <c r="I100" s="44"/>
-      <c r="J100" s="52" t="n">
+      <c r="B100" s="33"/>
+      <c r="C100" s="34"/>
+      <c r="D100" s="35"/>
+      <c r="E100" s="36"/>
+      <c r="F100" s="43"/>
+      <c r="G100" s="38"/>
+      <c r="H100" s="39"/>
+      <c r="I100" s="39"/>
+      <c r="J100" s="40" t="n">
         <f aca="false">'Purchase Request '!$H100*'Purchase Request '!$G100+'Purchase Request '!$I100</f>
         <v>0</v>
       </c>
-      <c r="K100" s="46" t="n">
+      <c r="K100" s="41" t="n">
         <f aca="false">'Purchase Request '!$H100*'Purchase Request '!$G100+'Purchase Request '!$I100</f>
         <v>0</v>
       </c>
-      <c r="L100" s="47"/>
+      <c r="L100" s="42"/>
     </row>
     <row r="101" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="37" t="n">
+      <c r="A101" s="32" t="n">
         <v>91</v>
       </c>
-      <c r="B101" s="48"/>
-      <c r="C101" s="49"/>
-      <c r="D101" s="50"/>
-      <c r="E101" s="51"/>
-      <c r="F101" s="42"/>
-      <c r="G101" s="43"/>
-      <c r="H101" s="44"/>
-      <c r="I101" s="44"/>
-      <c r="J101" s="52" t="n">
+      <c r="B101" s="33"/>
+      <c r="C101" s="34"/>
+      <c r="D101" s="35"/>
+      <c r="E101" s="36"/>
+      <c r="F101" s="43"/>
+      <c r="G101" s="38"/>
+      <c r="H101" s="39"/>
+      <c r="I101" s="39"/>
+      <c r="J101" s="40" t="n">
         <f aca="false">'Purchase Request '!$H101*'Purchase Request '!$G101+'Purchase Request '!$I101</f>
         <v>0</v>
       </c>
-      <c r="K101" s="46" t="n">
+      <c r="K101" s="41" t="n">
         <f aca="false">'Purchase Request '!$H101*'Purchase Request '!$G101+'Purchase Request '!$I101</f>
         <v>0</v>
       </c>
-      <c r="L101" s="47"/>
+      <c r="L101" s="42"/>
     </row>
     <row r="102" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="37" t="n">
+      <c r="A102" s="32" t="n">
         <v>92</v>
       </c>
-      <c r="B102" s="53"/>
-      <c r="C102" s="54"/>
-      <c r="D102" s="55"/>
-      <c r="E102" s="56"/>
-      <c r="F102" s="42"/>
-      <c r="G102" s="43"/>
-      <c r="H102" s="44"/>
-      <c r="I102" s="44"/>
-      <c r="J102" s="52" t="n">
+      <c r="B102" s="33"/>
+      <c r="C102" s="34"/>
+      <c r="D102" s="35"/>
+      <c r="E102" s="36"/>
+      <c r="F102" s="43"/>
+      <c r="G102" s="38"/>
+      <c r="H102" s="39"/>
+      <c r="I102" s="39"/>
+      <c r="J102" s="40" t="n">
         <f aca="false">'Purchase Request '!$H102*'Purchase Request '!$G102+'Purchase Request '!$I102</f>
         <v>0</v>
       </c>
-      <c r="K102" s="46" t="n">
+      <c r="K102" s="41" t="n">
         <f aca="false">'Purchase Request '!$H102*'Purchase Request '!$G102+'Purchase Request '!$I102</f>
         <v>0</v>
       </c>
-      <c r="L102" s="47"/>
+      <c r="L102" s="42"/>
     </row>
     <row r="103" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="37" t="n">
+      <c r="A103" s="32" t="n">
         <v>93</v>
       </c>
-      <c r="B103" s="53"/>
-      <c r="C103" s="54"/>
-      <c r="D103" s="55"/>
-      <c r="E103" s="56"/>
-      <c r="F103" s="42"/>
-      <c r="G103" s="43"/>
-      <c r="H103" s="44"/>
-      <c r="I103" s="44"/>
-      <c r="J103" s="52" t="n">
+      <c r="B103" s="33"/>
+      <c r="C103" s="34"/>
+      <c r="D103" s="35"/>
+      <c r="E103" s="36"/>
+      <c r="F103" s="43"/>
+      <c r="G103" s="38"/>
+      <c r="H103" s="39"/>
+      <c r="I103" s="39"/>
+      <c r="J103" s="40" t="n">
         <f aca="false">'Purchase Request '!$H103*'Purchase Request '!$G103+'Purchase Request '!$I103</f>
         <v>0</v>
       </c>
-      <c r="K103" s="46" t="n">
+      <c r="K103" s="41" t="n">
         <f aca="false">'Purchase Request '!$H103*'Purchase Request '!$G103+'Purchase Request '!$I103</f>
         <v>0</v>
       </c>
-      <c r="L103" s="47"/>
+      <c r="L103" s="42"/>
     </row>
     <row r="104" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="37" t="n">
+      <c r="A104" s="32" t="n">
         <v>94</v>
       </c>
-      <c r="B104" s="53"/>
-      <c r="C104" s="54"/>
-      <c r="D104" s="55"/>
-      <c r="E104" s="56"/>
-      <c r="F104" s="42"/>
-      <c r="G104" s="43"/>
-      <c r="H104" s="44"/>
-      <c r="I104" s="44"/>
-      <c r="J104" s="52" t="n">
+      <c r="B104" s="33"/>
+      <c r="C104" s="34"/>
+      <c r="D104" s="35"/>
+      <c r="E104" s="36"/>
+      <c r="F104" s="43"/>
+      <c r="G104" s="38"/>
+      <c r="H104" s="39"/>
+      <c r="I104" s="39"/>
+      <c r="J104" s="40" t="n">
         <f aca="false">'Purchase Request '!$H104*'Purchase Request '!$G104+'Purchase Request '!$I104</f>
         <v>0</v>
       </c>
-      <c r="K104" s="46" t="n">
+      <c r="K104" s="41" t="n">
         <f aca="false">'Purchase Request '!$H104*'Purchase Request '!$G104+'Purchase Request '!$I104</f>
         <v>0</v>
       </c>
-      <c r="L104" s="47"/>
+      <c r="L104" s="42"/>
     </row>
     <row r="105" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="37" t="n">
+      <c r="A105" s="32" t="n">
         <v>95</v>
       </c>
-      <c r="B105" s="53"/>
-      <c r="C105" s="54"/>
-      <c r="D105" s="55"/>
-      <c r="E105" s="56"/>
-      <c r="F105" s="42"/>
-      <c r="G105" s="43"/>
-      <c r="H105" s="44"/>
-      <c r="I105" s="44"/>
-      <c r="J105" s="52" t="n">
+      <c r="B105" s="33"/>
+      <c r="C105" s="34"/>
+      <c r="D105" s="35"/>
+      <c r="E105" s="36"/>
+      <c r="F105" s="43"/>
+      <c r="G105" s="38"/>
+      <c r="H105" s="39"/>
+      <c r="I105" s="39"/>
+      <c r="J105" s="40" t="n">
         <f aca="false">'Purchase Request '!$H105*'Purchase Request '!$G105+'Purchase Request '!$I105</f>
         <v>0</v>
       </c>
-      <c r="K105" s="46" t="n">
+      <c r="K105" s="41" t="n">
         <f aca="false">'Purchase Request '!$H105*'Purchase Request '!$G105+'Purchase Request '!$I105</f>
         <v>0</v>
       </c>
-      <c r="L105" s="47"/>
+      <c r="L105" s="42"/>
     </row>
     <row r="106" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="37" t="n">
+      <c r="A106" s="32" t="n">
         <v>96</v>
       </c>
-      <c r="B106" s="53"/>
-      <c r="C106" s="54"/>
-      <c r="D106" s="55"/>
-      <c r="E106" s="56"/>
-      <c r="F106" s="42"/>
-      <c r="G106" s="43"/>
-      <c r="H106" s="44"/>
-      <c r="I106" s="44"/>
-      <c r="J106" s="52" t="n">
+      <c r="B106" s="33"/>
+      <c r="C106" s="34"/>
+      <c r="D106" s="35"/>
+      <c r="E106" s="36"/>
+      <c r="F106" s="43"/>
+      <c r="G106" s="38"/>
+      <c r="H106" s="39"/>
+      <c r="I106" s="39"/>
+      <c r="J106" s="40" t="n">
         <f aca="false">'Purchase Request '!$H106*'Purchase Request '!$G106+'Purchase Request '!$I106</f>
         <v>0</v>
       </c>
-      <c r="K106" s="46" t="n">
+      <c r="K106" s="41" t="n">
         <f aca="false">'Purchase Request '!$H106*'Purchase Request '!$G106+'Purchase Request '!$I106</f>
         <v>0</v>
       </c>
-      <c r="L106" s="47"/>
+      <c r="L106" s="42"/>
     </row>
     <row r="107" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="37" t="n">
+      <c r="A107" s="32" t="n">
         <v>97</v>
       </c>
-      <c r="B107" s="53"/>
-      <c r="C107" s="54"/>
-      <c r="D107" s="55"/>
-      <c r="E107" s="56"/>
-      <c r="F107" s="42"/>
-      <c r="G107" s="43"/>
-      <c r="H107" s="44"/>
-      <c r="I107" s="44"/>
-      <c r="J107" s="52" t="n">
+      <c r="B107" s="33"/>
+      <c r="C107" s="34"/>
+      <c r="D107" s="35"/>
+      <c r="E107" s="36"/>
+      <c r="F107" s="43"/>
+      <c r="G107" s="38"/>
+      <c r="H107" s="39"/>
+      <c r="I107" s="39"/>
+      <c r="J107" s="40" t="n">
         <f aca="false">'Purchase Request '!$H107*'Purchase Request '!$G107+'Purchase Request '!$I107</f>
         <v>0</v>
       </c>
-      <c r="K107" s="46" t="n">
+      <c r="K107" s="41" t="n">
         <f aca="false">'Purchase Request '!$H107*'Purchase Request '!$G107+'Purchase Request '!$I107</f>
         <v>0</v>
       </c>
-      <c r="L107" s="47"/>
+      <c r="L107" s="42"/>
     </row>
     <row r="108" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A108" s="37" t="n">
+      <c r="A108" s="32" t="n">
         <v>98</v>
       </c>
-      <c r="B108" s="53"/>
-      <c r="C108" s="54"/>
-      <c r="D108" s="55"/>
-      <c r="E108" s="56"/>
-      <c r="F108" s="42"/>
-      <c r="G108" s="43"/>
-      <c r="H108" s="44"/>
-      <c r="I108" s="44"/>
-      <c r="J108" s="52" t="n">
+      <c r="B108" s="33"/>
+      <c r="C108" s="34"/>
+      <c r="D108" s="35"/>
+      <c r="E108" s="36"/>
+      <c r="F108" s="43"/>
+      <c r="G108" s="38"/>
+      <c r="H108" s="39"/>
+      <c r="I108" s="39"/>
+      <c r="J108" s="40" t="n">
         <f aca="false">'Purchase Request '!$H108*'Purchase Request '!$G108+'Purchase Request '!$I108</f>
         <v>0</v>
       </c>
-      <c r="K108" s="46" t="n">
+      <c r="K108" s="41" t="n">
         <f aca="false">'Purchase Request '!$H108*'Purchase Request '!$G108+'Purchase Request '!$I108</f>
         <v>0</v>
       </c>
-      <c r="L108" s="47"/>
+      <c r="L108" s="42"/>
     </row>
     <row r="109" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="37" t="n">
+      <c r="A109" s="32" t="n">
         <v>99</v>
       </c>
-      <c r="B109" s="53"/>
-      <c r="C109" s="54"/>
-      <c r="D109" s="55"/>
-      <c r="E109" s="56"/>
-      <c r="F109" s="42"/>
-      <c r="G109" s="43"/>
-      <c r="H109" s="44"/>
-      <c r="I109" s="44"/>
-      <c r="J109" s="52" t="n">
+      <c r="B109" s="33"/>
+      <c r="C109" s="34"/>
+      <c r="D109" s="35"/>
+      <c r="E109" s="36"/>
+      <c r="F109" s="43"/>
+      <c r="G109" s="38"/>
+      <c r="H109" s="39"/>
+      <c r="I109" s="39"/>
+      <c r="J109" s="40" t="n">
         <f aca="false">'Purchase Request '!$H109*'Purchase Request '!$G109+'Purchase Request '!$I109</f>
         <v>0</v>
       </c>
-      <c r="K109" s="46" t="n">
+      <c r="K109" s="41" t="n">
         <f aca="false">'Purchase Request '!$H109*'Purchase Request '!$G109+'Purchase Request '!$I109</f>
         <v>0</v>
       </c>
-      <c r="L109" s="47"/>
+      <c r="L109" s="42"/>
     </row>
     <row r="110" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="57" t="n">
+      <c r="A110" s="44" t="n">
         <v>100</v>
       </c>
-      <c r="B110" s="38"/>
-      <c r="C110" s="39"/>
-      <c r="D110" s="40"/>
-      <c r="E110" s="41"/>
-      <c r="F110" s="42"/>
-      <c r="G110" s="43"/>
-      <c r="H110" s="44"/>
-      <c r="I110" s="44"/>
-      <c r="J110" s="45" t="n">
+      <c r="B110" s="33"/>
+      <c r="C110" s="34"/>
+      <c r="D110" s="35"/>
+      <c r="E110" s="36"/>
+      <c r="F110" s="43"/>
+      <c r="G110" s="38"/>
+      <c r="H110" s="39"/>
+      <c r="I110" s="39"/>
+      <c r="J110" s="40" t="n">
         <f aca="false">'Purchase Request '!$H110*'Purchase Request '!$G110+'Purchase Request '!$I110</f>
         <v>0</v>
       </c>
-      <c r="K110" s="58" t="n">
+      <c r="K110" s="45" t="n">
         <f aca="false">'Purchase Request '!$H110*'Purchase Request '!$G110+'Purchase Request '!$I110</f>
         <v>0</v>
       </c>
-      <c r="L110" s="59"/>
+      <c r="L110" s="46"/>
     </row>
     <row r="111" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C111" s="60"/>
-      <c r="D111" s="60"/>
-      <c r="E111" s="60"/>
-      <c r="F111" s="61"/>
-      <c r="G111" s="60"/>
-      <c r="H111" s="60"/>
-      <c r="I111" s="60"/>
-      <c r="J111" s="60"/>
-    </row>
-    <row r="112" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C112" s="62"/>
-      <c r="D112" s="62"/>
-      <c r="E112" s="62"/>
-      <c r="F112" s="62"/>
-      <c r="G112" s="62"/>
-      <c r="H112" s="62"/>
-      <c r="I112" s="62"/>
-      <c r="J112" s="62"/>
-    </row>
+      <c r="C111" s="47"/>
+      <c r="D111" s="47"/>
+      <c r="E111" s="47"/>
+      <c r="F111" s="48"/>
+      <c r="G111" s="47"/>
+      <c r="H111" s="47"/>
+      <c r="I111" s="47"/>
+      <c r="J111" s="47"/>
+    </row>
+    <row r="112" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="C2:D2"/>
@@ -4394,6 +4720,19 @@
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="F11" r:id="rId1" display="https://www.thorlabs.com/thorproduct.cfm?partnumber=PS810-C"/>
+    <hyperlink ref="F12" r:id="rId2" display="https://www.thorlabs.com/thorproduct.cfm?partnumber=PS811-C"/>
+    <hyperlink ref="F13" r:id="rId3" display="https://www.thorlabs.com/thorproduct.cfm?partnumber=PS812-C"/>
+    <hyperlink ref="F14" r:id="rId4" display="https://www.amazon.com/DYS-2200KV-Brushless-Multirotor-Quadcopter/dp/B07545RQ62/ref=pd_bxgy_vft_high_sccl_2/130-1779425-7092708?pd_rd_w=X85GB&amp;content-id=amzn1.sym.7f0cf323-50c6-49e3-b3f9-63546bb79c92&amp;pf_rd_p=7f0cf323-50c6-49e3-b3f9-63546bb79c92&amp;pf_rd_r=3MXAN6A5W3EKA2VP9PW3&amp;pd_rd_wg=QMvO6&amp;pd_rd_r=29e207af-2332-411d-aea8-85927de654cb&amp;pd_rd_i=B07545RQ62&amp;th=1"/>
+    <hyperlink ref="F15" r:id="rId5" display="https://www.amazon.com/RC-Brushless-Electric-Controller-bullet/dp/B071GRSFBD/ref=pd_bxgy_vft_none_sccl_1/136-0048247-6319975?pd_rd_w=MvFrL&amp;content-id=amzn1.sym.7f0cf323-50c6-49e3-b3f9-63546bb79c92&amp;pf_rd_p=7f0cf323-50c6-49e3-b3f9-63546bb79c92&amp;pf_rd_r=PWNWS34TEATN2B6QJ1P0&amp;pd_rd_wg=SStfs&amp;pd_rd_r=692670f8-ee9f-4adf-9418-9555bad4a69d&amp;pd_rd_i=B071GRSFBD&amp;th=1"/>
+    <hyperlink ref="F17" r:id="rId6" display="https://www.amazon.com/Zeee-Graphene-Quadcopter-Helicopter-Airplane/dp/B07Y67MPKW/ref=sxin_17_pa_sp_search_thematic_sspa?content-id=amzn1.sym.efed5387-c72b-4c7e-9f69-37e7b3a247c4%3Aamzn1.sym.efed5387-c72b-4c7e-9f69-37e7b3a247c4&amp;crid=3GNRWU4MN8VA2&amp;cv_ct_cx=3s+lipo+battery+xt60&amp;keywords=3s+lipo+battery+xt60&amp;pd_rd_i=B07Y67MPKW&amp;pd_rd_r=755d92e4-473e-4c24-83ff-ca2b5b7128d2&amp;pd_rd_w=yW6hh&amp;pd_rd_wg=pzGYl&amp;pf_rd_p=efed5387-c72b-4c7e-9f69-37e7b3a247c4&amp;pf_rd_r=YN32WQ08QZ2TRM4R8WM4&amp;qid=1676684598&amp;sprefix=3s+lipo+battery+xt60%2Caps%2C106&amp;sr=1-5-d2e33f99-33d7-4007-8eb6-144611cb9116-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzRlhSWDg4SkgyVUlWJmVuY3J5cHRlZElkPUEwMjg3NjM2MVdHMFkzMkE5T1JZQyZlbmNyeXB0ZWRBZElkPUEwMjY0MTk0MlhUMko2S09YUVJMNCZ3aWRnZXROYW1lPXNwX3NlYXJjaF90aGVtYXRpYyZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU"/>
+    <hyperlink ref="F18" r:id="rId7" display="https://www.amazon.com/Battery-Fireproof-Explosion-Proof-Storage/dp/B078Y723Z3/ref=asc_df_B078Y723Z3/?tag=hyprod-20&amp;linkCode=df0&amp;hvadid=459723993320&amp;hvpos=&amp;hvnetw=g&amp;hvrand=14908349573147210203&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9011497&amp;hvtargid=pla-965790198382&amp;psc=1"/>
+    <hyperlink ref="F19" r:id="rId8" display="https://www.civillaser.com/index.php?main_page=product_info&amp;products_id=1276"/>
+    <hyperlink ref="F20" r:id="rId9" display="https://www.atomstack.net/products/atomstack-od5-laser-protective-glasses?currency=USD&amp;variant=41033735405749&amp;utm_medium=cpc&amp;utm_source=google&amp;utm_campaign=Google%20Shopping&amp;gclid=Cj0KCQiA6LyfBhC3ARIsAG4gkF9zHam45QhZ9hOpmTvXbGnOjy7zufnKVgHVr2GHpWKX9YiawuHzo8UaAnlsEALw_wcB"/>
+    <hyperlink ref="F21" r:id="rId10" display="https://www.uline.com/Product/Detail/H-5179S8/Welding/Welding-Screen-6-x-8-Shade-8"/>
+    <hyperlink ref="F22" r:id="rId11" display="https://www.grainger.com/product/451R27?gucid=N:N:PS:Paid:GGL:CSM-2295:4P7A1P:20501231&amp;gclid=Cj0KCQiA6LyfBhC3ARIsAG4gkF8mrG7LQRc5XMbhc7sgmJkHLK7Wq7zfbQvBMNuZW0-TjL3wW8M21LQaAkbcEALw_wcB&amp;gclsrc=aw.ds"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
   <pageMargins left="0.4" right="0.4" top="0.4" bottom="0.4" header="0.511811023622047" footer="0.3"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="0" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -4403,9 +4742,9 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId12"/>
   <tableParts>
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId13"/>
   </tableParts>
 </worksheet>
 </file>
@@ -4418,168 +4757,168 @@
   </sheetPr>
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.53125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="72.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="72.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.76"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="63" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="63"/>
-    </row>
-    <row r="2" customFormat="false" ht="60.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="64" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="65" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="66"/>
-      <c r="B3" s="67"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="68"/>
-      <c r="B4" s="69"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="66"/>
-      <c r="B5" s="67"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="68"/>
-      <c r="B6" s="69"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="66"/>
-      <c r="B7" s="67"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="68"/>
-      <c r="B8" s="69"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="66"/>
-      <c r="B9" s="67"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="68"/>
-      <c r="B10" s="69"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="66"/>
-      <c r="B11" s="67"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="68"/>
-      <c r="B12" s="69"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="66"/>
-      <c r="B13" s="67"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="68"/>
-      <c r="B14" s="69"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="66"/>
-      <c r="B15" s="67"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="68"/>
-      <c r="B16" s="69"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="66"/>
-      <c r="B17" s="67"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="68"/>
-      <c r="B18" s="69"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="66"/>
-      <c r="B19" s="67"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="68"/>
-      <c r="B20" s="69"/>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="66"/>
-      <c r="B21" s="67"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="68"/>
-      <c r="B22" s="69"/>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="66"/>
-      <c r="B23" s="67"/>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="68"/>
-      <c r="B24" s="69"/>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="66"/>
-      <c r="B25" s="67"/>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="68"/>
-      <c r="B26" s="69"/>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="66"/>
-      <c r="B27" s="67"/>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="68"/>
-      <c r="B28" s="69"/>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="66"/>
-      <c r="B29" s="67"/>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="68"/>
-      <c r="B30" s="69"/>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="66"/>
-      <c r="B31" s="67"/>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="68"/>
-      <c r="B32" s="69"/>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="66"/>
-      <c r="B33" s="67"/>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="68"/>
-      <c r="B34" s="69"/>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="66"/>
-      <c r="B35" s="67"/>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="68"/>
-      <c r="B36" s="69"/>
+      <c r="A1" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="49"/>
+    </row>
+    <row r="2" customFormat="false" ht="65.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="52"/>
+      <c r="B3" s="53"/>
+    </row>
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="54"/>
+      <c r="B4" s="55"/>
+    </row>
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="52"/>
+      <c r="B5" s="53"/>
+    </row>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="54"/>
+      <c r="B6" s="55"/>
+    </row>
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="52"/>
+      <c r="B7" s="53"/>
+    </row>
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="54"/>
+      <c r="B8" s="55"/>
+    </row>
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="52"/>
+      <c r="B9" s="53"/>
+    </row>
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="54"/>
+      <c r="B10" s="55"/>
+    </row>
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="52"/>
+      <c r="B11" s="53"/>
+    </row>
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="54"/>
+      <c r="B12" s="55"/>
+    </row>
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="52"/>
+      <c r="B13" s="53"/>
+    </row>
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="54"/>
+      <c r="B14" s="55"/>
+    </row>
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="52"/>
+      <c r="B15" s="53"/>
+    </row>
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="54"/>
+      <c r="B16" s="55"/>
+    </row>
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="52"/>
+      <c r="B17" s="53"/>
+    </row>
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="54"/>
+      <c r="B18" s="55"/>
+    </row>
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="52"/>
+      <c r="B19" s="53"/>
+    </row>
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="54"/>
+      <c r="B20" s="55"/>
+    </row>
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="52"/>
+      <c r="B21" s="53"/>
+    </row>
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="54"/>
+      <c r="B22" s="55"/>
+    </row>
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="52"/>
+      <c r="B23" s="53"/>
+    </row>
+    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="54"/>
+      <c r="B24" s="55"/>
+    </row>
+    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="52"/>
+      <c r="B25" s="53"/>
+    </row>
+    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="54"/>
+      <c r="B26" s="55"/>
+    </row>
+    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="52"/>
+      <c r="B27" s="53"/>
+    </row>
+    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="54"/>
+      <c r="B28" s="55"/>
+    </row>
+    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="52"/>
+      <c r="B29" s="53"/>
+    </row>
+    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="54"/>
+      <c r="B30" s="55"/>
+    </row>
+    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="52"/>
+      <c r="B31" s="53"/>
+    </row>
+    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="54"/>
+      <c r="B32" s="55"/>
+    </row>
+    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="52"/>
+      <c r="B33" s="53"/>
+    </row>
+    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="54"/>
+      <c r="B34" s="55"/>
+    </row>
+    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="52"/>
+      <c r="B35" s="53"/>
+    </row>
+    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="54"/>
+      <c r="B36" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4609,246 +4948,246 @@
   </sheetPr>
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.53125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="38.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="33.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="38.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="33.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.76"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="70" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-    </row>
-    <row r="2" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="64" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="71" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="72" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="73" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="66"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="68"/>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="66"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="68"/>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="66"/>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="68"/>
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="66"/>
-      <c r="B9" s="74"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="68"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="66"/>
-      <c r="B11" s="74"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="68"/>
-      <c r="B12" s="75"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="75"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="66"/>
-      <c r="B13" s="74"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="68"/>
-      <c r="B14" s="75"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="66"/>
-      <c r="B15" s="74"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="68"/>
-      <c r="B16" s="75"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="75"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="66"/>
-      <c r="B17" s="74"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="68"/>
-      <c r="B18" s="75"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="66"/>
-      <c r="B19" s="74"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="74"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="68"/>
-      <c r="B20" s="75"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="75"/>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="66"/>
-      <c r="B21" s="74"/>
-      <c r="C21" s="74"/>
-      <c r="D21" s="74"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="68"/>
-      <c r="B22" s="75"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="75"/>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="66"/>
-      <c r="B23" s="74"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="74"/>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="68"/>
-      <c r="B24" s="75"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="75"/>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="66"/>
-      <c r="B25" s="74"/>
-      <c r="C25" s="74"/>
-      <c r="D25" s="74"/>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="68"/>
-      <c r="B26" s="75"/>
-      <c r="C26" s="75"/>
-      <c r="D26" s="75"/>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="66"/>
-      <c r="B27" s="74"/>
-      <c r="C27" s="74"/>
-      <c r="D27" s="74"/>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="68"/>
-      <c r="B28" s="75"/>
-      <c r="C28" s="75"/>
-      <c r="D28" s="75"/>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="66"/>
-      <c r="B29" s="74"/>
-      <c r="C29" s="74"/>
-      <c r="D29" s="74"/>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="68"/>
-      <c r="B30" s="75"/>
-      <c r="C30" s="75"/>
-      <c r="D30" s="75"/>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="66"/>
-      <c r="B31" s="74"/>
-      <c r="C31" s="74"/>
-      <c r="D31" s="74"/>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="68"/>
-      <c r="B32" s="75"/>
-      <c r="C32" s="75"/>
-      <c r="D32" s="75"/>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="66"/>
-      <c r="B33" s="74"/>
-      <c r="C33" s="74"/>
-      <c r="D33" s="74"/>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="68"/>
-      <c r="B34" s="75"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="75"/>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="66"/>
-      <c r="B35" s="74"/>
-      <c r="C35" s="74"/>
-      <c r="D35" s="74"/>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="68"/>
-      <c r="B36" s="75"/>
-      <c r="C36" s="75"/>
-      <c r="D36" s="75"/>
+      <c r="A1" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+    </row>
+    <row r="2" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="59" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="52"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+    </row>
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="54"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+    </row>
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="52"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+    </row>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="54"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+    </row>
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="52"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+    </row>
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="54"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+    </row>
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="52"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+    </row>
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="54"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+    </row>
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="52"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+    </row>
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="54"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+    </row>
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="52"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+    </row>
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="54"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+    </row>
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="52"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+    </row>
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="54"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+    </row>
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="52"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+    </row>
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="54"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+    </row>
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="52"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+    </row>
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="54"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+    </row>
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="52"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+    </row>
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="54"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+    </row>
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="52"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+    </row>
+    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="54"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+    </row>
+    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="52"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+    </row>
+    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="54"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+    </row>
+    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="52"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
+    </row>
+    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="54"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+    </row>
+    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="52"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
+    </row>
+    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="54"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+    </row>
+    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="52"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+    </row>
+    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="54"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+    </row>
+    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="52"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+    </row>
+    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="54"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+    </row>
+    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="52"/>
+      <c r="B35" s="60"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+    </row>
+    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="54"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="1">
